--- a/Jogos_do_Dia/2024-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1015,13 +1015,13 @@
         <v>3.9</v>
       </c>
       <c r="J2">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="K2">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="L2">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="M2">
         <v>1.55</v>
@@ -1042,10 +1042,10 @@
         <v>2.55</v>
       </c>
       <c r="S2">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="T2">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U2">
         <v>2.05</v>
@@ -1099,10 +1099,10 @@
         <v>1.98</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -1146,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="K3">
-        <v>4.91</v>
+        <v>4.05</v>
       </c>
       <c r="L3">
-        <v>8.59</v>
+        <v>6.5</v>
       </c>
       <c r="M3">
         <v>1.32</v>
@@ -1173,10 +1173,10 @@
         <v>3.9</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T3">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="U3">
         <v>2.04</v>
@@ -1209,43 +1209,43 @@
         <v>2.94</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1408,13 +1408,13 @@
         <v>4.52</v>
       </c>
       <c r="J5">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.28</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.68</v>
       </c>
       <c r="M5">
         <v>1.33</v>
@@ -1539,13 +1539,13 @@
         <v>3.8</v>
       </c>
       <c r="J6">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="K6">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="L6">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="M6">
         <v>1.55</v>
@@ -1566,10 +1566,10 @@
         <v>2.55</v>
       </c>
       <c r="S6">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="T6">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U6">
         <v>2.1</v>
@@ -1617,22 +1617,22 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -1733,43 +1733,43 @@
         <v>3.16</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1801,13 +1801,13 @@
         <v>2.5</v>
       </c>
       <c r="J8">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="K8">
-        <v>3.51</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="M8">
         <v>1.33</v>
@@ -1828,10 +1828,10 @@
         <v>3.75</v>
       </c>
       <c r="S8">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <v>1.73</v>
@@ -1864,13 +1864,13 @@
         <v>2.99</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1879,28 +1879,28 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1932,13 +1932,13 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="K9">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="L9">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="M9">
         <v>1.3</v>
@@ -1959,10 +1959,10 @@
         <v>4</v>
       </c>
       <c r="S9">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="T9">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U9">
         <v>1.62</v>
@@ -1995,13 +1995,13 @@
         <v>3.03</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2010,28 +2010,28 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2063,13 +2063,13 @@
         <v>3.75</v>
       </c>
       <c r="J10">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="K10">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L10">
-        <v>2.76</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
         <v>1.37</v>
@@ -2090,10 +2090,10 @@
         <v>3.6</v>
       </c>
       <c r="S10">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U10">
         <v>1.73</v>
@@ -2194,13 +2194,13 @@
         <v>3.1</v>
       </c>
       <c r="J11">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="K11">
-        <v>3.53</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="M11">
         <v>1.33</v>
@@ -2221,10 +2221,10 @@
         <v>4.22</v>
       </c>
       <c r="S11">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="T11">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="U11">
         <v>1.58</v>
@@ -2325,13 +2325,13 @@
         <v>4.5</v>
       </c>
       <c r="J12">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="K12">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="M12">
         <v>1.28</v>
@@ -2352,10 +2352,10 @@
         <v>4.75</v>
       </c>
       <c r="S12">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="T12">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="U12">
         <v>1.55</v>
@@ -2456,13 +2456,13 @@
         <v>4.9</v>
       </c>
       <c r="J13">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="K13">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="L13">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M13">
         <v>1.32</v>
@@ -2483,10 +2483,10 @@
         <v>3.9</v>
       </c>
       <c r="S13">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="T13">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>1.72</v>
@@ -2587,13 +2587,13 @@
         <v>3.5</v>
       </c>
       <c r="J14">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="K14">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="L14">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M14">
         <v>1.38</v>
@@ -2617,7 +2617,7 @@
         <v>1.81</v>
       </c>
       <c r="T14">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U14">
         <v>1.68</v>
@@ -2718,13 +2718,13 @@
         <v>13.28</v>
       </c>
       <c r="J15">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K15">
-        <v>6.99</v>
+        <v>6.1</v>
       </c>
       <c r="L15">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="M15">
         <v>1.31</v>
@@ -2745,10 +2745,10 @@
         <v>4.3</v>
       </c>
       <c r="S15">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="T15">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="U15">
         <v>2.76</v>
@@ -2849,13 +2849,13 @@
         <v>4.2</v>
       </c>
       <c r="J16">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="K16">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L16">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
         <v>1.33</v>
@@ -2876,10 +2876,10 @@
         <v>3.3</v>
       </c>
       <c r="S16">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="T16">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="U16">
         <v>1.8</v>
@@ -2980,13 +2980,13 @@
         <v>2.4</v>
       </c>
       <c r="J17">
-        <v>4.08</v>
+        <v>3.8</v>
       </c>
       <c r="K17">
-        <v>3.66</v>
+        <v>3.4</v>
       </c>
       <c r="L17">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="M17">
         <v>1.36</v>
@@ -3007,10 +3007,10 @@
         <v>3.5</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="T17">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="U17">
         <v>1.8</v>
@@ -3111,13 +3111,13 @@
         <v>3.5</v>
       </c>
       <c r="J18">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K18">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
         <v>1.28</v>
@@ -3138,10 +3138,10 @@
         <v>4.4</v>
       </c>
       <c r="S18">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T18">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="U18">
         <v>1.53</v>
@@ -4028,13 +4028,13 @@
         <v>4.33</v>
       </c>
       <c r="J25">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="K25">
-        <v>3.93</v>
+        <v>4.25</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>1.29</v>
@@ -4055,10 +4055,10 @@
         <v>4.5</v>
       </c>
       <c r="S25">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="T25">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
       <c r="U25">
         <v>1.6</v>
@@ -4290,13 +4290,13 @@
         <v>3.1</v>
       </c>
       <c r="J27">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="K27">
         <v>3.4</v>
       </c>
       <c r="L27">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -4317,10 +4317,10 @@
         <v>4.25</v>
       </c>
       <c r="S27">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T27">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
         <v>1.53</v>
@@ -4374,16 +4374,16 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP27">
         <v>0</v>
@@ -4421,13 +4421,13 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="K28">
-        <v>3.26</v>
+        <v>3.15</v>
       </c>
       <c r="L28">
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="M28">
         <v>1.42</v>
@@ -4448,10 +4448,10 @@
         <v>3</v>
       </c>
       <c r="S28">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="U28">
         <v>1.85</v>
@@ -4552,13 +4552,13 @@
         <v>3.8</v>
       </c>
       <c r="J29">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="K29">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="L29">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
         <v>1.57</v>
@@ -4573,16 +4573,16 @@
         <v>6.25</v>
       </c>
       <c r="Q29">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R29">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="S29">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T29">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="U29">
         <v>2</v>
@@ -4683,13 +4683,13 @@
         <v>6.01</v>
       </c>
       <c r="J30">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="K30">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M30">
         <v>1.28</v>
@@ -4710,7 +4710,7 @@
         <v>4.68</v>
       </c>
       <c r="S30">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="T30">
         <v>2.28</v>
@@ -4814,13 +4814,13 @@
         <v>3.25</v>
       </c>
       <c r="J31">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="K31">
-        <v>3.23</v>
+        <v>3.1</v>
       </c>
       <c r="L31">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="M31">
         <v>1.41</v>
@@ -4841,10 +4841,10 @@
         <v>3.04</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T31">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U31">
         <v>1.8</v>
@@ -4945,13 +4945,13 @@
         <v>4</v>
       </c>
       <c r="J32">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K32">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="L32">
-        <v>3.23</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
         <v>1.4</v>
@@ -4972,10 +4972,10 @@
         <v>3.65</v>
       </c>
       <c r="S32">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T32">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U32">
         <v>1.75</v>
@@ -5076,13 +5076,13 @@
         <v>8.5</v>
       </c>
       <c r="J33">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="K33">
-        <v>5.2</v>
+        <v>5.25</v>
       </c>
       <c r="L33">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="M33">
         <v>1.33</v>
@@ -5103,10 +5103,10 @@
         <v>4.12</v>
       </c>
       <c r="S33">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="T33">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="U33">
         <v>2.1</v>
@@ -5207,13 +5207,13 @@
         <v>3.75</v>
       </c>
       <c r="J34">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="K34">
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
       <c r="L34">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
         <v>1.31</v>
@@ -5234,7 +5234,7 @@
         <v>4.15</v>
       </c>
       <c r="S34">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T34">
         <v>2.15</v>
@@ -5264,10 +5264,10 @@
         <v>1.61</v>
       </c>
       <c r="AC34">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AD34">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -5338,13 +5338,13 @@
         <v>3.8</v>
       </c>
       <c r="J35">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="K35">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="L35">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="M35">
         <v>1.4</v>
@@ -5365,7 +5365,7 @@
         <v>3.35</v>
       </c>
       <c r="S35">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
         <v>1.86</v>
@@ -5410,34 +5410,34 @@
         <v>2.62</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -5469,13 +5469,13 @@
         <v>3.75</v>
       </c>
       <c r="J36">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K36">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="M36">
         <v>1.4</v>
@@ -5496,10 +5496,10 @@
         <v>3.4</v>
       </c>
       <c r="S36">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U36">
         <v>1.75</v>
@@ -5600,13 +5600,13 @@
         <v>2.4</v>
       </c>
       <c r="J37">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K37">
-        <v>3.53</v>
+        <v>3.65</v>
       </c>
       <c r="L37">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="M37">
         <v>1.4</v>
@@ -5627,10 +5627,10 @@
         <v>3.4</v>
       </c>
       <c r="S37">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U37">
         <v>1.8</v>
@@ -5731,13 +5731,13 @@
         <v>2</v>
       </c>
       <c r="J38">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K38">
-        <v>4.71</v>
+        <v>4.6</v>
       </c>
       <c r="L38">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="M38">
         <v>1.25</v>
@@ -5785,10 +5785,10 @@
         <v>2</v>
       </c>
       <c r="AB38">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AC38">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AD38">
         <v>2.8</v>
@@ -5862,13 +5862,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K39">
-        <v>5.35</v>
+        <v>5.6</v>
       </c>
       <c r="L39">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="T39">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="U39">
         <v>0</v>

--- a/Jogos_do_Dia/2024-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -172,12 +172,12 @@
     <t>Denmark Superliga</t>
   </si>
   <si>
+    <t>Switzerland Challenge League</t>
+  </si>
+  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
-    <t>Switzerland Challenge League</t>
-  </si>
-  <si>
     <t>Netherlands Eerste Divisie</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>Italy Serie B</t>
   </si>
   <si>
+    <t>Germany Bundesliga</t>
+  </si>
+  <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
-    <t>Germany Bundesliga</t>
-  </si>
-  <si>
     <t>Italy Serie A</t>
   </si>
   <si>
@@ -202,15 +202,15 @@
     <t>Belgium Pro League</t>
   </si>
   <si>
+    <t>France Ligue 1</t>
+  </si>
+  <si>
+    <t>England Championship</t>
+  </si>
+  <si>
     <t>Spain La Liga</t>
   </si>
   <si>
-    <t>France Ligue 1</t>
-  </si>
-  <si>
-    <t>England Championship</t>
-  </si>
-  <si>
     <t>Portugal Liga NOS</t>
   </si>
   <si>
@@ -277,18 +277,18 @@
     <t>Warta Poznań</t>
   </si>
   <si>
+    <t>Liefering</t>
+  </si>
+  <si>
+    <t>Kapfenberger SV</t>
+  </si>
+  <si>
     <t>St. Pölten</t>
   </si>
   <si>
     <t>Dornbirn</t>
   </si>
   <si>
-    <t>Liefering</t>
-  </si>
-  <si>
-    <t>Kapfenberger SV</t>
-  </si>
-  <si>
     <t>Greuther Fürth</t>
   </si>
   <si>
@@ -307,12 +307,12 @@
     <t>CS U Craiova</t>
   </si>
   <si>
+    <t>Neuchâtel Xamax</t>
+  </si>
+  <si>
     <t>LASK Linz</t>
   </si>
   <si>
-    <t>Neuchâtel Xamax</t>
-  </si>
-  <si>
     <t>Oss</t>
   </si>
   <si>
@@ -343,6 +343,9 @@
     <t>Modena</t>
   </si>
   <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
     <t>Leganés</t>
   </si>
   <si>
@@ -352,9 +355,6 @@
     <t>Floridsdorfer AC</t>
   </si>
   <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
     <t>Lazio</t>
   </si>
   <si>
@@ -364,15 +364,15 @@
     <t>Sint-Truiden</t>
   </si>
   <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Plymouth Argyle</t>
+  </si>
+  <si>
     <t>Real Betis</t>
   </si>
   <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Plymouth Argyle</t>
-  </si>
-  <si>
     <t>Gil Vicente</t>
   </si>
   <si>
@@ -391,18 +391,18 @@
     <t>Korona Kielce</t>
   </si>
   <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
+    <t>SV Stripfing Weiden</t>
+  </si>
+  <si>
     <t>Admira</t>
   </si>
   <si>
     <t>First Vienna</t>
   </si>
   <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>SV Stripfing Weiden</t>
-  </si>
-  <si>
     <t>Kaiserslautern</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>SSC Farul</t>
   </si>
   <si>
+    <t>Aarau</t>
+  </si>
+  <si>
     <t>Salzburg</t>
   </si>
   <si>
-    <t>Aarau</t>
-  </si>
-  <si>
     <t>Roda JC</t>
   </si>
   <si>
@@ -457,6 +457,9 @@
     <t>Catanzaro</t>
   </si>
   <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
     <t>RCD Espanyol</t>
   </si>
   <si>
@@ -466,9 +469,6 @@
     <t>Leoben</t>
   </si>
   <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
     <t>Salernitana</t>
   </si>
   <si>
@@ -478,13 +478,13 @@
     <t>Standard Liège</t>
   </si>
   <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
     <t>Celta de Vigo</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Leicester City</t>
   </si>
   <si>
     <t>Sporting CP</t>
@@ -1015,13 +1015,13 @@
         <v>3.9</v>
       </c>
       <c r="J2">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K2">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>1.55</v>
@@ -1042,10 +1042,10 @@
         <v>2.55</v>
       </c>
       <c r="S2">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="T2">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U2">
         <v>2.05</v>
@@ -1078,19 +1078,19 @@
         <v>2.79</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AJ2">
         <v>1.82</v>
@@ -1105,16 +1105,16 @@
         <v>1.67</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1146,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="K3">
-        <v>4.05</v>
+        <v>4.8</v>
       </c>
       <c r="L3">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="M3">
         <v>1.32</v>
@@ -1173,10 +1173,10 @@
         <v>3.9</v>
       </c>
       <c r="S3">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T3">
-        <v>1.81</v>
+        <v>2.15</v>
       </c>
       <c r="U3">
         <v>2.04</v>
@@ -1349,34 +1349,34 @@
         <v>1.69</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1408,13 +1408,13 @@
         <v>4.52</v>
       </c>
       <c r="J5">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="K5">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="M5">
         <v>1.33</v>
@@ -1435,7 +1435,7 @@
         <v>3.65</v>
       </c>
       <c r="S5">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
         <v>1.95</v>
@@ -1471,43 +1471,43 @@
         <v>3.26</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1539,13 +1539,13 @@
         <v>3.8</v>
       </c>
       <c r="J6">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="K6">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="L6">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M6">
         <v>1.55</v>
@@ -1566,10 +1566,10 @@
         <v>2.55</v>
       </c>
       <c r="S6">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="T6">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="U6">
         <v>2.1</v>
@@ -1602,19 +1602,19 @@
         <v>2.5</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AJ6">
         <v>1.6</v>
@@ -1635,10 +1635,10 @@
         <v>1.5</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1661,115 +1661,115 @@
         <v>125</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2.25</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>2.6</v>
       </c>
-      <c r="H7">
-        <v>2.1</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>1.95</v>
-      </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M7">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N7">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="O7">
         <v>1.02</v>
       </c>
       <c r="P7">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="R7">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="T7">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="U7">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V7">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W7">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="X7">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Y7">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AA7">
-        <v>1.09</v>
+        <v>2.55</v>
       </c>
       <c r="AB7">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="AC7">
         <v>1.51</v>
       </c>
       <c r="AD7">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="AE7">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG7">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AH7">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AK7">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="AL7">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AM7">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="AN7">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="AO7">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AP7">
-        <v>2.84</v>
+        <v>2.67</v>
       </c>
       <c r="AQ7">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1792,28 +1792,28 @@
         <v>126</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="H8">
         <v>2.2</v>
       </c>
       <c r="I8">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="J8">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="N8">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="O8">
         <v>1.04</v>
@@ -1825,13 +1825,13 @@
         <v>1.25</v>
       </c>
       <c r="R8">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U8">
         <v>1.73</v>
@@ -1840,67 +1840,67 @@
         <v>2</v>
       </c>
       <c r="W8">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="X8">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y8">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="Z8">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="AA8">
-        <v>1.36</v>
+        <v>0.91</v>
       </c>
       <c r="AB8">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AC8">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="AD8">
-        <v>2.99</v>
+        <v>2.43</v>
       </c>
       <c r="AE8">
-        <v>2.66</v>
+        <v>1.76</v>
       </c>
       <c r="AF8">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AG8">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ8">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AK8">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="AL8">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="AM8">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="AN8">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="AO8">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="AP8">
-        <v>2.4</v>
+        <v>3.14</v>
       </c>
       <c r="AQ8">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1923,115 +1923,115 @@
         <v>127</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="H9">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="K9">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N9">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="O9">
         <v>1.02</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="Q9">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="S9">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="U9">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W9">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="X9">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Y9">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="Z9">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AA9">
-        <v>2.55</v>
+        <v>1.09</v>
       </c>
       <c r="AB9">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AC9">
         <v>1.51</v>
       </c>
       <c r="AD9">
-        <v>3.03</v>
+        <v>3.16</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AF9">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG9">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ9">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AK9">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AL9">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AM9">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="AN9">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="AO9">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AP9">
-        <v>2.67</v>
+        <v>2.84</v>
       </c>
       <c r="AQ9">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2054,28 +2054,28 @@
         <v>128</v>
       </c>
       <c r="G10">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="H10">
         <v>2.2</v>
       </c>
       <c r="I10">
+        <v>2.5</v>
+      </c>
+      <c r="J10">
+        <v>3.6</v>
+      </c>
+      <c r="K10">
         <v>3.75</v>
       </c>
-      <c r="J10">
-        <v>2.05</v>
-      </c>
-      <c r="K10">
-        <v>3.4</v>
-      </c>
       <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1.33</v>
+      </c>
+      <c r="N10">
         <v>3.25</v>
-      </c>
-      <c r="M10">
-        <v>1.37</v>
-      </c>
-      <c r="N10">
-        <v>2.85</v>
       </c>
       <c r="O10">
         <v>1.04</v>
@@ -2087,13 +2087,13 @@
         <v>1.25</v>
       </c>
       <c r="R10">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>1.73</v>
@@ -2102,37 +2102,37 @@
         <v>2</v>
       </c>
       <c r="W10">
+        <v>1.78</v>
+      </c>
+      <c r="X10">
+        <v>1.22</v>
+      </c>
+      <c r="Y10">
         <v>1.3</v>
       </c>
-      <c r="X10">
-        <v>1.25</v>
-      </c>
-      <c r="Y10">
-        <v>1.72</v>
-      </c>
       <c r="Z10">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="AA10">
-        <v>0.91</v>
+        <v>1.36</v>
       </c>
       <c r="AB10">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AC10">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="AD10">
-        <v>2.43</v>
+        <v>2.99</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2141,28 +2141,28 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2194,13 +2194,13 @@
         <v>3.1</v>
       </c>
       <c r="J11">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L11">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M11">
         <v>1.33</v>
@@ -2221,10 +2221,10 @@
         <v>4.22</v>
       </c>
       <c r="S11">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="T11">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="U11">
         <v>1.58</v>
@@ -2325,13 +2325,13 @@
         <v>4.5</v>
       </c>
       <c r="J12">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="K12">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L12">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="M12">
         <v>1.28</v>
@@ -2352,10 +2352,10 @@
         <v>4.75</v>
       </c>
       <c r="S12">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="T12">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="U12">
         <v>1.55</v>
@@ -2397,22 +2397,22 @@
         <v>6.54</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AN12">
         <v>1.86</v>
@@ -2421,10 +2421,10 @@
         <v>1.86</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2456,13 +2456,13 @@
         <v>4.9</v>
       </c>
       <c r="J13">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K13">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L13">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>1.32</v>
@@ -2483,10 +2483,10 @@
         <v>3.9</v>
       </c>
       <c r="S13">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U13">
         <v>1.72</v>
@@ -2519,43 +2519,43 @@
         <v>2.8</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2590,10 +2590,10 @@
         <v>2.3</v>
       </c>
       <c r="K14">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M14">
         <v>1.38</v>
@@ -2614,10 +2614,10 @@
         <v>3.8</v>
       </c>
       <c r="S14">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="U14">
         <v>1.68</v>
@@ -2718,13 +2718,13 @@
         <v>13.28</v>
       </c>
       <c r="J15">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K15">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="M15">
         <v>1.31</v>
@@ -2745,10 +2745,10 @@
         <v>4.3</v>
       </c>
       <c r="S15">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T15">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="U15">
         <v>2.76</v>
@@ -2796,28 +2796,28 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2849,13 +2849,13 @@
         <v>4.2</v>
       </c>
       <c r="J16">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="K16">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L16">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <v>1.33</v>
@@ -2876,10 +2876,10 @@
         <v>3.3</v>
       </c>
       <c r="S16">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="U16">
         <v>1.8</v>
@@ -2912,25 +2912,25 @@
         <v>3.09</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AL16">
         <v>1.95</v>
@@ -2939,16 +2939,16 @@
         <v>1.85</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2962,7 +2962,7 @@
         <v>75</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>97</v>
@@ -2971,115 +2971,115 @@
         <v>135</v>
       </c>
       <c r="G17">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="H17">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I17">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="J17">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
         <v>3.4</v>
       </c>
-      <c r="L17">
-        <v>1.74</v>
-      </c>
       <c r="M17">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>3.42</v>
       </c>
       <c r="O17">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q17">
+        <v>1.16</v>
+      </c>
+      <c r="R17">
+        <v>4.4</v>
+      </c>
+      <c r="S17">
+        <v>1.6</v>
+      </c>
+      <c r="T17">
+        <v>2.3</v>
+      </c>
+      <c r="U17">
+        <v>1.53</v>
+      </c>
+      <c r="V17">
+        <v>2.38</v>
+      </c>
+      <c r="W17">
         <v>1.3</v>
       </c>
-      <c r="R17">
-        <v>3.5</v>
-      </c>
-      <c r="S17">
-        <v>1.86</v>
-      </c>
-      <c r="T17">
-        <v>1.69</v>
-      </c>
-      <c r="U17">
-        <v>1.8</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
       <c r="X17">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="Y17">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AA17">
-        <v>2.33</v>
+        <v>0.93</v>
       </c>
       <c r="AB17">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="AC17">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AE17">
-        <v>2.62</v>
+        <v>1.63</v>
       </c>
       <c r="AF17">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG17">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="AH17">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AK17">
-        <v>2.27</v>
+        <v>3.42</v>
       </c>
       <c r="AL17">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
       <c r="AM17">
+        <v>2.45</v>
+      </c>
+      <c r="AN17">
         <v>1.78</v>
       </c>
-      <c r="AN17">
-        <v>2.57</v>
-      </c>
       <c r="AO17">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="AP17">
-        <v>3.48</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3093,7 +3093,7 @@
         <v>75</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
@@ -3102,115 +3102,115 @@
         <v>136</v>
       </c>
       <c r="G18">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="H18">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I18">
+        <v>2.4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>3.7</v>
+      </c>
+      <c r="L18">
+        <v>1.73</v>
+      </c>
+      <c r="M18">
+        <v>1.36</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>1.04</v>
+      </c>
+      <c r="P18">
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <v>1.3</v>
+      </c>
+      <c r="R18">
         <v>3.5</v>
       </c>
-      <c r="J18">
-        <v>2.05</v>
-      </c>
-      <c r="K18">
-        <v>3.5</v>
-      </c>
-      <c r="L18">
-        <v>3.2</v>
-      </c>
-      <c r="M18">
-        <v>1.28</v>
-      </c>
-      <c r="N18">
-        <v>3.42</v>
-      </c>
-      <c r="O18">
-        <v>1.02</v>
-      </c>
-      <c r="P18">
-        <v>10</v>
-      </c>
-      <c r="Q18">
-        <v>1.16</v>
-      </c>
-      <c r="R18">
-        <v>4.4</v>
-      </c>
       <c r="S18">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="T18">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="U18">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="Y18">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="Z18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA18">
-        <v>0.93</v>
+        <v>2.33</v>
       </c>
       <c r="AB18">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AC18">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AD18">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -4028,13 +4028,13 @@
         <v>4.33</v>
       </c>
       <c r="J25">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="K25">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M25">
         <v>1.29</v>
@@ -4055,10 +4055,10 @@
         <v>4.5</v>
       </c>
       <c r="S25">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="T25">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="U25">
         <v>1.6</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2">
         <v>45394</v>
@@ -4287,16 +4287,16 @@
         <v>2.3</v>
       </c>
       <c r="I27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J27">
         <v>2.25</v>
       </c>
       <c r="K27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -4317,16 +4317,16 @@
         <v>4.25</v>
       </c>
       <c r="S27">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T27">
+        <v>2.15</v>
+      </c>
+      <c r="U27">
+        <v>1.57</v>
+      </c>
+      <c r="V27">
         <v>2.25</v>
-      </c>
-      <c r="U27">
-        <v>1.53</v>
-      </c>
-      <c r="V27">
-        <v>2.38</v>
       </c>
       <c r="W27">
         <v>1.41</v>
@@ -4353,13 +4353,13 @@
         <v>2.84</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -4368,10 +4368,10 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL27">
         <v>1.64</v>
@@ -4386,10 +4386,10 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4421,13 +4421,13 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
         <v>1.42</v>
@@ -4448,10 +4448,10 @@
         <v>3</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U28">
         <v>1.85</v>
@@ -4534,7 +4534,7 @@
         <v>78</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
         <v>109</v>
@@ -4543,120 +4543,120 @@
         <v>147</v>
       </c>
       <c r="G29">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="H29">
+        <v>2.2</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>3.6</v>
+      </c>
+      <c r="L29">
+        <v>3.6</v>
+      </c>
+      <c r="M29">
+        <v>1.4</v>
+      </c>
+      <c r="N29">
+        <v>2.75</v>
+      </c>
+      <c r="O29">
+        <v>1.07</v>
+      </c>
+      <c r="P29">
+        <v>12</v>
+      </c>
+      <c r="Q29">
+        <v>1.28</v>
+      </c>
+      <c r="R29">
+        <v>3.65</v>
+      </c>
+      <c r="S29">
         <v>1.85</v>
       </c>
-      <c r="I29">
-        <v>3.8</v>
-      </c>
-      <c r="J29">
-        <v>2.48</v>
-      </c>
-      <c r="K29">
-        <v>2.8</v>
-      </c>
-      <c r="L29">
-        <v>3.1</v>
-      </c>
-      <c r="M29">
-        <v>1.57</v>
-      </c>
-      <c r="N29">
-        <v>2.25</v>
-      </c>
-      <c r="O29">
-        <v>1.11</v>
-      </c>
-      <c r="P29">
-        <v>6.25</v>
-      </c>
-      <c r="Q29">
-        <v>1.49</v>
-      </c>
-      <c r="R29">
-        <v>2.43</v>
-      </c>
-      <c r="S29">
-        <v>2.5</v>
-      </c>
       <c r="T29">
+        <v>1.85</v>
+      </c>
+      <c r="U29">
+        <v>1.75</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1.3</v>
+      </c>
+      <c r="X29">
+        <v>1.32</v>
+      </c>
+      <c r="Y29">
+        <v>1.78</v>
+      </c>
+      <c r="Z29">
         <v>1.5</v>
       </c>
-      <c r="U29">
-        <v>2</v>
-      </c>
-      <c r="V29">
-        <v>1.7</v>
-      </c>
-      <c r="W29">
-        <v>1.35</v>
-      </c>
-      <c r="X29">
+      <c r="AA29">
+        <v>0.64</v>
+      </c>
+      <c r="AB29">
+        <v>1.44</v>
+      </c>
+      <c r="AC29">
+        <v>1.17</v>
+      </c>
+      <c r="AD29">
+        <v>2.61</v>
+      </c>
+      <c r="AE29">
+        <v>1.68</v>
+      </c>
+      <c r="AF29">
+        <v>7.5</v>
+      </c>
+      <c r="AG29">
+        <v>2.55</v>
+      </c>
+      <c r="AH29">
         <v>1.33</v>
       </c>
-      <c r="Y29">
-        <v>1.53</v>
-      </c>
-      <c r="Z29">
-        <v>1.94</v>
-      </c>
-      <c r="AA29">
-        <v>1.24</v>
-      </c>
-      <c r="AB29">
-        <v>1.38</v>
-      </c>
-      <c r="AC29">
-        <v>1.1</v>
-      </c>
-      <c r="AD29">
-        <v>2.48</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AN29">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="AO29">
-        <v>1.95</v>
+        <v>1.41</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2">
         <v>45394</v>
@@ -4665,7 +4665,7 @@
         <v>78</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
         <v>110</v>
@@ -4674,120 +4674,120 @@
         <v>148</v>
       </c>
       <c r="G30">
-        <v>1.96</v>
+        <v>3.2</v>
       </c>
       <c r="H30">
-        <v>2.61</v>
+        <v>1.85</v>
       </c>
       <c r="I30">
-        <v>6.01</v>
+        <v>3.8</v>
       </c>
       <c r="J30">
+        <v>2.45</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1.57</v>
+      </c>
+      <c r="N30">
+        <v>2.25</v>
+      </c>
+      <c r="O30">
+        <v>1.11</v>
+      </c>
+      <c r="P30">
+        <v>6.25</v>
+      </c>
+      <c r="Q30">
         <v>1.5</v>
       </c>
-      <c r="K30">
-        <v>4.4</v>
-      </c>
-      <c r="L30">
-        <v>5.5</v>
-      </c>
-      <c r="M30">
-        <v>1.28</v>
-      </c>
-      <c r="N30">
-        <v>3.4</v>
-      </c>
-      <c r="O30">
-        <v>1.03</v>
-      </c>
-      <c r="P30">
-        <v>17.5</v>
-      </c>
-      <c r="Q30">
-        <v>1.2</v>
-      </c>
       <c r="R30">
-        <v>4.68</v>
+        <v>2.45</v>
       </c>
       <c r="S30">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="T30">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="U30">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>2.11</v>
+        <v>1.7</v>
       </c>
       <c r="W30">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="X30">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="Y30">
-        <v>2.52</v>
+        <v>1.53</v>
       </c>
       <c r="Z30">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AA30">
-        <v>0.54</v>
+        <v>1.24</v>
       </c>
       <c r="AB30">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AC30">
         <v>1.1</v>
       </c>
       <c r="AD30">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AP30">
-        <v>1.82</v>
+        <v>2.52</v>
       </c>
       <c r="AQ30">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
         <v>45394</v>
@@ -4796,7 +4796,7 @@
         <v>78</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
         <v>111</v>
@@ -4805,85 +4805,85 @@
         <v>149</v>
       </c>
       <c r="G31">
-        <v>3.2</v>
+        <v>1.96</v>
       </c>
       <c r="H31">
-        <v>2.05</v>
+        <v>2.61</v>
       </c>
       <c r="I31">
-        <v>3.25</v>
+        <v>6.01</v>
       </c>
       <c r="J31">
-        <v>2.55</v>
+        <v>1.44</v>
       </c>
       <c r="K31">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="L31">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="M31">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="N31">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="O31">
         <v>1.03</v>
       </c>
       <c r="P31">
-        <v>8.4</v>
+        <v>17.5</v>
       </c>
       <c r="Q31">
+        <v>1.2</v>
+      </c>
+      <c r="R31">
+        <v>4.68</v>
+      </c>
+      <c r="S31">
+        <v>1.57</v>
+      </c>
+      <c r="T31">
+        <v>2.25</v>
+      </c>
+      <c r="U31">
+        <v>1.69</v>
+      </c>
+      <c r="V31">
+        <v>2.11</v>
+      </c>
+      <c r="W31">
+        <v>1.12</v>
+      </c>
+      <c r="X31">
+        <v>1.18</v>
+      </c>
+      <c r="Y31">
+        <v>2.52</v>
+      </c>
+      <c r="Z31">
+        <v>1.54</v>
+      </c>
+      <c r="AA31">
+        <v>0.54</v>
+      </c>
+      <c r="AB31">
+        <v>1.83</v>
+      </c>
+      <c r="AC31">
+        <v>1.1</v>
+      </c>
+      <c r="AD31">
+        <v>2.93</v>
+      </c>
+      <c r="AE31">
         <v>1.31</v>
       </c>
-      <c r="R31">
-        <v>3.04</v>
-      </c>
-      <c r="S31">
-        <v>2.08</v>
-      </c>
-      <c r="T31">
-        <v>1.73</v>
-      </c>
-      <c r="U31">
-        <v>1.8</v>
-      </c>
-      <c r="V31">
-        <v>1.91</v>
-      </c>
-      <c r="W31">
-        <v>1.44</v>
-      </c>
-      <c r="X31">
-        <v>1.31</v>
-      </c>
-      <c r="Y31">
-        <v>1.48</v>
-      </c>
-      <c r="Z31">
-        <v>1.91</v>
-      </c>
-      <c r="AA31">
-        <v>1.64</v>
-      </c>
-      <c r="AB31">
-        <v>1.56</v>
-      </c>
-      <c r="AC31">
-        <v>1.31</v>
-      </c>
-      <c r="AD31">
-        <v>2.87</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
       <c r="AF31">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -4898,27 +4898,27 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2">
         <v>45394</v>
@@ -4927,7 +4927,7 @@
         <v>78</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
         <v>112</v>
@@ -4936,115 +4936,115 @@
         <v>150</v>
       </c>
       <c r="G32">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H32">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="J32">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="K32">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M32">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="N32">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="O32">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P32">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="Q32">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="R32">
-        <v>3.65</v>
+        <v>3.04</v>
       </c>
       <c r="S32">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="T32">
+        <v>1.73</v>
+      </c>
+      <c r="U32">
+        <v>1.83</v>
+      </c>
+      <c r="V32">
+        <v>1.83</v>
+      </c>
+      <c r="W32">
+        <v>1.44</v>
+      </c>
+      <c r="X32">
+        <v>1.31</v>
+      </c>
+      <c r="Y32">
+        <v>1.48</v>
+      </c>
+      <c r="Z32">
+        <v>1.91</v>
+      </c>
+      <c r="AA32">
+        <v>1.64</v>
+      </c>
+      <c r="AB32">
+        <v>1.56</v>
+      </c>
+      <c r="AC32">
+        <v>1.31</v>
+      </c>
+      <c r="AD32">
+        <v>2.87</v>
+      </c>
+      <c r="AE32">
         <v>1.93</v>
       </c>
-      <c r="U32">
-        <v>1.75</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>1.3</v>
-      </c>
-      <c r="X32">
-        <v>1.32</v>
-      </c>
-      <c r="Y32">
-        <v>1.78</v>
-      </c>
-      <c r="Z32">
-        <v>1.5</v>
-      </c>
-      <c r="AA32">
-        <v>0.64</v>
-      </c>
-      <c r="AB32">
-        <v>1.44</v>
-      </c>
-      <c r="AC32">
-        <v>1.17</v>
-      </c>
-      <c r="AD32">
-        <v>2.61</v>
-      </c>
-      <c r="AE32">
-        <v>1.68</v>
-      </c>
       <c r="AF32">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG32">
-        <v>2.55</v>
+        <v>2.13</v>
       </c>
       <c r="AH32">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AI32">
-        <v>2.85</v>
+        <v>3.28</v>
       </c>
       <c r="AJ32">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AK32">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="AL32">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="AM32">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="AN32">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AO32">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AP32">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="AQ32">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5076,13 +5076,13 @@
         <v>8.5</v>
       </c>
       <c r="J33">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="K33">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="L33">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="M33">
         <v>1.33</v>
@@ -5103,10 +5103,10 @@
         <v>4.12</v>
       </c>
       <c r="S33">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="T33">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="U33">
         <v>2.1</v>
@@ -5207,10 +5207,10 @@
         <v>3.75</v>
       </c>
       <c r="J34">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="K34">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L34">
         <v>3.3</v>
@@ -5264,10 +5264,10 @@
         <v>1.61</v>
       </c>
       <c r="AC34">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AD34">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -5338,13 +5338,13 @@
         <v>3.8</v>
       </c>
       <c r="J35">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="K35">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
         <v>1.4</v>
@@ -5368,7 +5368,7 @@
         <v>1.95</v>
       </c>
       <c r="T35">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U35">
         <v>1.73</v>
@@ -5451,7 +5451,7 @@
         <v>80</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
         <v>116</v>
@@ -5460,22 +5460,22 @@
         <v>154</v>
       </c>
       <c r="G36">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="H36">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I36">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="J36">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="K36">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
-        <v>3.65</v>
+        <v>1.83</v>
       </c>
       <c r="M36">
         <v>1.4</v>
@@ -5484,91 +5484,91 @@
         <v>2.75</v>
       </c>
       <c r="O36">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q36">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R36">
         <v>3.4</v>
       </c>
       <c r="S36">
+        <v>1.98</v>
+      </c>
+      <c r="T36">
+        <v>1.88</v>
+      </c>
+      <c r="U36">
+        <v>1.8</v>
+      </c>
+      <c r="V36">
         <v>1.95</v>
       </c>
-      <c r="T36">
-        <v>1.85</v>
-      </c>
-      <c r="U36">
-        <v>1.75</v>
-      </c>
-      <c r="V36">
-        <v>2</v>
-      </c>
       <c r="W36">
-        <v>1.35</v>
+        <v>2.05</v>
       </c>
       <c r="X36">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="Y36">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="Z36">
-        <v>1.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.93</v>
+        <v>1.36</v>
       </c>
       <c r="AB36">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="AC36">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AD36">
-        <v>2.68</v>
+        <v>2.53</v>
       </c>
       <c r="AE36">
-        <v>1.73</v>
+        <v>2.6</v>
       </c>
       <c r="AF36">
         <v>7.5</v>
       </c>
       <c r="AG36">
-        <v>2.45</v>
+        <v>1.67</v>
       </c>
       <c r="AH36">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AI36">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="AJ36">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AK36">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="AL36">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AM36">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="AN36">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="AO36">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AP36">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AQ36">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="37" spans="1:43">
@@ -5582,7 +5582,7 @@
         <v>80</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>117</v>
@@ -5591,115 +5591,115 @@
         <v>155</v>
       </c>
       <c r="G37">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>4.5</v>
+      </c>
+      <c r="L37">
+        <v>1.44</v>
+      </c>
+      <c r="M37">
+        <v>1.25</v>
+      </c>
+      <c r="N37">
+        <v>3.75</v>
+      </c>
+      <c r="O37">
+        <v>1.01</v>
+      </c>
+      <c r="P37">
+        <v>23</v>
+      </c>
+      <c r="Q37">
+        <v>1.16</v>
+      </c>
+      <c r="R37">
+        <v>5.5</v>
+      </c>
+      <c r="S37">
+        <v>1.53</v>
+      </c>
+      <c r="T37">
+        <v>2.35</v>
+      </c>
+      <c r="U37">
+        <v>1.57</v>
+      </c>
+      <c r="V37">
+        <v>2.25</v>
+      </c>
+      <c r="W37">
+        <v>2.65</v>
+      </c>
+      <c r="X37">
+        <v>1.15</v>
+      </c>
+      <c r="Y37">
+        <v>1.14</v>
+      </c>
+      <c r="Z37">
+        <v>1.38</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>1.43</v>
+      </c>
+      <c r="AC37">
+        <v>1.37</v>
+      </c>
+      <c r="AD37">
+        <v>2.8</v>
+      </c>
+      <c r="AE37">
+        <v>4.2</v>
+      </c>
+      <c r="AF37">
+        <v>8</v>
+      </c>
+      <c r="AG37">
+        <v>1.36</v>
+      </c>
+      <c r="AH37">
+        <v>1.16</v>
+      </c>
+      <c r="AI37">
+        <v>5.15</v>
+      </c>
+      <c r="AJ37">
+        <v>1.33</v>
+      </c>
+      <c r="AK37">
+        <v>3.35</v>
+      </c>
+      <c r="AL37">
+        <v>1.56</v>
+      </c>
+      <c r="AM37">
+        <v>2.42</v>
+      </c>
+      <c r="AN37">
+        <v>1.9</v>
+      </c>
+      <c r="AO37">
+        <v>1.9</v>
+      </c>
+      <c r="AP37">
         <v>2.4</v>
       </c>
-      <c r="J37">
-        <v>4.3</v>
-      </c>
-      <c r="K37">
-        <v>3.65</v>
-      </c>
-      <c r="L37">
-        <v>1.83</v>
-      </c>
-      <c r="M37">
-        <v>1.4</v>
-      </c>
-      <c r="N37">
-        <v>2.75</v>
-      </c>
-      <c r="O37">
-        <v>1.05</v>
-      </c>
-      <c r="P37">
-        <v>11</v>
-      </c>
-      <c r="Q37">
-        <v>1.32</v>
-      </c>
-      <c r="R37">
-        <v>3.4</v>
-      </c>
-      <c r="S37">
-        <v>1.9</v>
-      </c>
-      <c r="T37">
-        <v>1.9</v>
-      </c>
-      <c r="U37">
-        <v>1.8</v>
-      </c>
-      <c r="V37">
-        <v>1.95</v>
-      </c>
-      <c r="W37">
-        <v>2.05</v>
-      </c>
-      <c r="X37">
-        <v>1.24</v>
-      </c>
-      <c r="Y37">
-        <v>1.22</v>
-      </c>
-      <c r="Z37">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AA37">
-        <v>1.36</v>
-      </c>
-      <c r="AB37">
-        <v>1.2</v>
-      </c>
-      <c r="AC37">
-        <v>1.33</v>
-      </c>
-      <c r="AD37">
-        <v>2.53</v>
-      </c>
-      <c r="AE37">
-        <v>2.6</v>
-      </c>
-      <c r="AF37">
-        <v>7.5</v>
-      </c>
-      <c r="AG37">
-        <v>1.67</v>
-      </c>
-      <c r="AH37">
-        <v>1.32</v>
-      </c>
-      <c r="AI37">
-        <v>2.88</v>
-      </c>
-      <c r="AJ37">
-        <v>1.58</v>
-      </c>
-      <c r="AK37">
-        <v>2.16</v>
-      </c>
-      <c r="AL37">
-        <v>2</v>
-      </c>
-      <c r="AM37">
-        <v>1.7</v>
-      </c>
-      <c r="AN37">
-        <v>2.55</v>
-      </c>
-      <c r="AO37">
-        <v>1.41</v>
-      </c>
-      <c r="AP37">
-        <v>3.4</v>
-      </c>
       <c r="AQ37">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="38" spans="1:43">
@@ -5713,7 +5713,7 @@
         <v>80</v>
       </c>
       <c r="D38">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
         <v>118</v>
@@ -5722,115 +5722,115 @@
         <v>156</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="H38">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="I38">
+        <v>3.75</v>
+      </c>
+      <c r="J38">
+        <v>2.15</v>
+      </c>
+      <c r="K38">
+        <v>3.5</v>
+      </c>
+      <c r="L38">
+        <v>3.2</v>
+      </c>
+      <c r="M38">
+        <v>1.4</v>
+      </c>
+      <c r="N38">
+        <v>2.75</v>
+      </c>
+      <c r="O38">
+        <v>1.06</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <v>1.33</v>
+      </c>
+      <c r="R38">
+        <v>3.4</v>
+      </c>
+      <c r="S38">
+        <v>2.01</v>
+      </c>
+      <c r="T38">
+        <v>1.85</v>
+      </c>
+      <c r="U38">
+        <v>1.75</v>
+      </c>
+      <c r="V38">
         <v>2</v>
       </c>
-      <c r="J38">
-        <v>5.7</v>
-      </c>
-      <c r="K38">
-        <v>4.6</v>
-      </c>
-      <c r="L38">
-        <v>1.41</v>
-      </c>
-      <c r="M38">
-        <v>1.25</v>
-      </c>
-      <c r="N38">
-        <v>3.75</v>
-      </c>
-      <c r="O38">
-        <v>1.01</v>
-      </c>
-      <c r="P38">
-        <v>23</v>
-      </c>
-      <c r="Q38">
-        <v>1.16</v>
-      </c>
-      <c r="R38">
-        <v>5.5</v>
-      </c>
-      <c r="S38">
-        <v>1.44</v>
-      </c>
-      <c r="T38">
-        <v>2.48</v>
-      </c>
-      <c r="U38">
-        <v>1.57</v>
-      </c>
-      <c r="V38">
+      <c r="W38">
+        <v>1.35</v>
+      </c>
+      <c r="X38">
+        <v>1.28</v>
+      </c>
+      <c r="Y38">
+        <v>1.7</v>
+      </c>
+      <c r="Z38">
+        <v>1.8</v>
+      </c>
+      <c r="AA38">
+        <v>0.93</v>
+      </c>
+      <c r="AB38">
+        <v>1.53</v>
+      </c>
+      <c r="AC38">
+        <v>1.15</v>
+      </c>
+      <c r="AD38">
+        <v>2.68</v>
+      </c>
+      <c r="AE38">
+        <v>1.73</v>
+      </c>
+      <c r="AF38">
+        <v>7.5</v>
+      </c>
+      <c r="AG38">
+        <v>2.45</v>
+      </c>
+      <c r="AH38">
+        <v>1.29</v>
+      </c>
+      <c r="AI38">
+        <v>3.05</v>
+      </c>
+      <c r="AJ38">
+        <v>1.54</v>
+      </c>
+      <c r="AK38">
         <v>2.25</v>
       </c>
-      <c r="W38">
-        <v>2.65</v>
-      </c>
-      <c r="X38">
-        <v>1.15</v>
-      </c>
-      <c r="Y38">
-        <v>1.14</v>
-      </c>
-      <c r="Z38">
-        <v>1.38</v>
-      </c>
-      <c r="AA38">
-        <v>2</v>
-      </c>
-      <c r="AB38">
-        <v>1.42</v>
-      </c>
-      <c r="AC38">
-        <v>1.38</v>
-      </c>
-      <c r="AD38">
-        <v>2.8</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>1.16</v>
-      </c>
-      <c r="AI38">
-        <v>5.15</v>
-      </c>
-      <c r="AJ38">
-        <v>1.33</v>
-      </c>
-      <c r="AK38">
-        <v>3.35</v>
-      </c>
       <c r="AL38">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="AM38">
-        <v>2.42</v>
+        <v>1.77</v>
       </c>
       <c r="AN38">
-        <v>1.9</v>
+        <v>2.43</v>
       </c>
       <c r="AO38">
-        <v>1.9</v>
+        <v>1.46</v>
       </c>
       <c r="AP38">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AQ38">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="39" spans="1:43">
@@ -5862,13 +5862,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K39">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L39">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="T39">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="U39">
         <v>0</v>

--- a/Jogos_do_Dia/2024-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1015,13 +1015,13 @@
         <v>3.9</v>
       </c>
       <c r="J2">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M2">
         <v>1.55</v>
@@ -1042,10 +1042,10 @@
         <v>2.55</v>
       </c>
       <c r="S2">
-        <v>2.37</v>
+        <v>2.48</v>
       </c>
       <c r="T2">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U2">
         <v>2.05</v>
@@ -1146,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="K3">
-        <v>4.8</v>
+        <v>4.91</v>
       </c>
       <c r="L3">
-        <v>8.5</v>
+        <v>8.59</v>
       </c>
       <c r="M3">
         <v>1.32</v>
@@ -1173,10 +1173,10 @@
         <v>3.9</v>
       </c>
       <c r="S3">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="U3">
         <v>2.04</v>
@@ -1408,13 +1408,13 @@
         <v>4.52</v>
       </c>
       <c r="J5">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="K5">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="L5">
-        <v>3.7</v>
+        <v>4.08</v>
       </c>
       <c r="M5">
         <v>1.33</v>
@@ -1435,10 +1435,10 @@
         <v>3.65</v>
       </c>
       <c r="S5">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="T5">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U5">
         <v>1.68</v>
@@ -1539,13 +1539,13 @@
         <v>3.8</v>
       </c>
       <c r="J6">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="K6">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L6">
-        <v>2.75</v>
+        <v>2.84</v>
       </c>
       <c r="M6">
         <v>1.55</v>
@@ -1566,10 +1566,10 @@
         <v>2.55</v>
       </c>
       <c r="S6">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="T6">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U6">
         <v>2.1</v>
@@ -1754,7 +1754,7 @@
         <v>2.88</v>
       </c>
       <c r="AL7">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="AM7">
         <v>2.1</v>
@@ -1885,7 +1885,7 @@
         <v>2.48</v>
       </c>
       <c r="AL8">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="AM8">
         <v>1.89</v>
@@ -1935,7 +1935,7 @@
         <v>2.05</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
         <v>3.6</v>
@@ -2016,7 +2016,7 @@
         <v>2.6</v>
       </c>
       <c r="AL9">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="AM9">
         <v>1.99</v>
@@ -2054,7 +2054,7 @@
         <v>128</v>
       </c>
       <c r="G10">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>2.2</v>
@@ -2147,7 +2147,7 @@
         <v>3.2</v>
       </c>
       <c r="AL10">
-        <v>1.51</v>
+        <v>1.83</v>
       </c>
       <c r="AM10">
         <v>2.32</v>
@@ -2194,13 +2194,13 @@
         <v>3.1</v>
       </c>
       <c r="J11">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="K11">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>2.49</v>
       </c>
       <c r="M11">
         <v>1.33</v>
@@ -2221,10 +2221,10 @@
         <v>4.22</v>
       </c>
       <c r="S11">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="T11">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="U11">
         <v>1.58</v>
@@ -2325,13 +2325,13 @@
         <v>4.5</v>
       </c>
       <c r="J12">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="K12">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="M12">
         <v>1.28</v>
@@ -2352,10 +2352,10 @@
         <v>4.75</v>
       </c>
       <c r="S12">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="T12">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="U12">
         <v>1.55</v>
@@ -2462,7 +2462,7 @@
         <v>4.2</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="M13">
         <v>1.32</v>
@@ -2483,10 +2483,10 @@
         <v>3.9</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T13">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>1.72</v>
@@ -2587,13 +2587,13 @@
         <v>3.5</v>
       </c>
       <c r="J14">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L14">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="M14">
         <v>1.38</v>
@@ -2718,10 +2718,10 @@
         <v>13.28</v>
       </c>
       <c r="J15">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="L15">
         <v>15</v>
@@ -2745,7 +2745,7 @@
         <v>4.3</v>
       </c>
       <c r="S15">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="T15">
         <v>2.1</v>
@@ -2781,13 +2781,13 @@
         <v>2.95</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>4.2</v>
       </c>
       <c r="J16">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="K16">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L16">
         <v>4</v>
@@ -2876,10 +2876,10 @@
         <v>3.3</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T16">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="U16">
         <v>1.8</v>
@@ -3111,13 +3111,13 @@
         <v>2.4</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K18">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M18">
         <v>1.36</v>
@@ -3570,40 +3570,40 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -4028,13 +4028,13 @@
         <v>4.33</v>
       </c>
       <c r="J25">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="K25">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="M25">
         <v>1.29</v>
@@ -4055,10 +4055,10 @@
         <v>4.5</v>
       </c>
       <c r="S25">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="T25">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="U25">
         <v>1.6</v>
@@ -4421,13 +4421,13 @@
         <v>4</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K28">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M28">
         <v>1.42</v>
@@ -4448,10 +4448,10 @@
         <v>3</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U28">
         <v>1.85</v>
@@ -4552,13 +4552,13 @@
         <v>4</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="K29">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="M29">
         <v>1.4</v>
@@ -4579,10 +4579,10 @@
         <v>3.65</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T29">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U29">
         <v>1.75</v>
@@ -4683,13 +4683,13 @@
         <v>3.8</v>
       </c>
       <c r="J30">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M30">
         <v>1.57</v>
@@ -4704,16 +4704,16 @@
         <v>6.25</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R30">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="S30">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="T30">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="U30">
         <v>2</v>
@@ -4814,13 +4814,13 @@
         <v>6.01</v>
       </c>
       <c r="J31">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="K31">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="L31">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M31">
         <v>1.28</v>
@@ -4841,10 +4841,10 @@
         <v>4.68</v>
       </c>
       <c r="S31">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="U31">
         <v>1.69</v>
@@ -5076,13 +5076,13 @@
         <v>8.5</v>
       </c>
       <c r="J33">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="K33">
-        <v>5.5</v>
+        <v>4.95</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M33">
         <v>1.33</v>
@@ -5207,7 +5207,7 @@
         <v>3.75</v>
       </c>
       <c r="J34">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="K34">
         <v>3.6</v>
@@ -5234,10 +5234,10 @@
         <v>4.15</v>
       </c>
       <c r="S34">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T34">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="U34">
         <v>1.55</v>
@@ -5338,13 +5338,13 @@
         <v>3.8</v>
       </c>
       <c r="J35">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="K35">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L35">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="M35">
         <v>1.4</v>
@@ -5469,13 +5469,13 @@
         <v>2.4</v>
       </c>
       <c r="J36">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="M36">
         <v>1.4</v>
@@ -5603,10 +5603,10 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L37">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M37">
         <v>1.25</v>
@@ -5627,10 +5627,10 @@
         <v>5.5</v>
       </c>
       <c r="S37">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="T37">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="U37">
         <v>1.57</v>
@@ -5731,13 +5731,13 @@
         <v>3.75</v>
       </c>
       <c r="J38">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="K38">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
         <v>1.4</v>
@@ -5862,13 +5862,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K39">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L39">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="T39">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="U39">
         <v>0</v>

--- a/Jogos_do_Dia/2024-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -166,12 +166,12 @@
     <t>Germany 2. Bundesliga</t>
   </si>
   <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
     <t>Switzerland Challenge League</t>
   </si>
   <si>
@@ -184,24 +184,24 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Germany Bundesliga</t>
+  </si>
+  <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
     <t>Italy Serie B</t>
   </si>
   <si>
-    <t>Germany Bundesliga</t>
-  </si>
-  <si>
-    <t>Spain Segunda División</t>
+    <t>Wales Welsh Premier League</t>
+  </si>
+  <si>
+    <t>Belgium Pro League</t>
   </si>
   <si>
     <t>Italy Serie A</t>
   </si>
   <si>
-    <t>Wales Welsh Premier League</t>
-  </si>
-  <si>
-    <t>Belgium Pro League</t>
-  </si>
-  <si>
     <t>France Ligue 1</t>
   </si>
   <si>
@@ -277,40 +277,55 @@
     <t>Warta Poznań</t>
   </si>
   <si>
+    <t>St. Pölten</t>
+  </si>
+  <si>
+    <t>Dornbirn</t>
+  </si>
+  <si>
     <t>Liefering</t>
   </si>
   <si>
     <t>Kapfenberger SV</t>
   </si>
   <si>
-    <t>St. Pölten</t>
-  </si>
-  <si>
-    <t>Dornbirn</t>
-  </si>
-  <si>
     <t>Greuther Fürth</t>
   </si>
   <si>
     <t>Hertha BSC</t>
   </si>
   <si>
+    <t>OB</t>
+  </si>
+  <si>
     <t>Trabzonspor</t>
   </si>
   <si>
-    <t>OB</t>
-  </si>
-  <si>
     <t>CSKA Sofia</t>
   </si>
   <si>
+    <t>Neuchâtel Xamax</t>
+  </si>
+  <si>
+    <t>LASK Linz</t>
+  </si>
+  <si>
     <t>CS U Craiova</t>
   </si>
   <si>
-    <t>Neuchâtel Xamax</t>
-  </si>
-  <si>
-    <t>LASK Linz</t>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
   </si>
   <si>
     <t>Oss</t>
@@ -319,51 +334,36 @@
     <t>Willem II</t>
   </si>
   <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>Emmen</t>
-  </si>
-  <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
-    <t>Excelsior</t>
-  </si>
-  <si>
     <t>Eindhoven</t>
   </si>
   <si>
     <t>FC Schaffhausen</t>
   </si>
   <si>
+    <t>Pogoń Szczecin</t>
+  </si>
+  <si>
+    <t>Floridsdorfer AC</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Leganés</t>
+  </si>
+  <si>
     <t>Modena</t>
   </si>
   <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Leganés</t>
-  </si>
-  <si>
-    <t>Pogoń Szczecin</t>
-  </si>
-  <si>
-    <t>Floridsdorfer AC</t>
+    <t>Connah's Quay</t>
+  </si>
+  <si>
+    <t>Sint-Truiden</t>
   </si>
   <si>
     <t>Lazio</t>
   </si>
   <si>
-    <t>Connah's Quay</t>
-  </si>
-  <si>
-    <t>Sint-Truiden</t>
-  </si>
-  <si>
     <t>Metz</t>
   </si>
   <si>
@@ -391,40 +391,55 @@
     <t>Korona Kielce</t>
   </si>
   <si>
+    <t>Admira</t>
+  </si>
+  <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
     <t>Grazer AK</t>
   </si>
   <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
-    <t>Admira</t>
-  </si>
-  <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
     <t>Kaiserslautern</t>
   </si>
   <si>
     <t>Hansa Rostock</t>
   </si>
   <si>
+    <t>Viborg</t>
+  </si>
+  <si>
     <t>Sivasspor</t>
   </si>
   <si>
-    <t>Viborg</t>
-  </si>
-  <si>
     <t>OFK Pirin</t>
   </si>
   <si>
+    <t>Aarau</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
     <t>SSC Farul</t>
   </si>
   <si>
-    <t>Aarau</t>
-  </si>
-  <si>
-    <t>Salzburg</t>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
+    <t>Volendam</t>
+  </si>
+  <si>
+    <t>MVV</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
   </si>
   <si>
     <t>Roda JC</t>
@@ -433,49 +448,34 @@
     <t>AZ II</t>
   </si>
   <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>MVV</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>Volendam</t>
-  </si>
-  <si>
     <t>PSV II</t>
   </si>
   <si>
     <t>Vaduz</t>
   </si>
   <si>
+    <t>Ruch Chorzów</t>
+  </si>
+  <si>
+    <t>Leoben</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>RCD Espanyol</t>
+  </si>
+  <si>
     <t>Catanzaro</t>
   </si>
   <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>RCD Espanyol</t>
-  </si>
-  <si>
-    <t>Ruch Chorzów</t>
-  </si>
-  <si>
-    <t>Leoben</t>
+    <t>Bala Town</t>
+  </si>
+  <si>
+    <t>Standard Liège</t>
   </si>
   <si>
     <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Bala Town</t>
-  </si>
-  <si>
-    <t>Standard Liège</t>
   </si>
   <si>
     <t>Lens</t>
@@ -1015,13 +1015,13 @@
         <v>3.9</v>
       </c>
       <c r="J2">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K2">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="L2">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="M2">
         <v>1.55</v>
@@ -1036,16 +1036,16 @@
         <v>7.5</v>
       </c>
       <c r="Q2">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="R2">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="S2">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="T2">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U2">
         <v>2.05</v>
@@ -1063,10 +1063,10 @@
         <v>1.55</v>
       </c>
       <c r="Z2">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AA2">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AB2">
         <v>1.49</v>
@@ -1146,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="K3">
-        <v>4.91</v>
+        <v>4.8</v>
       </c>
       <c r="L3">
-        <v>8.59</v>
+        <v>7.9</v>
       </c>
       <c r="M3">
         <v>1.32</v>
@@ -1173,10 +1173,10 @@
         <v>3.9</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="U3">
         <v>2.04</v>
@@ -1194,10 +1194,10 @@
         <v>3.22</v>
       </c>
       <c r="Z3">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA3">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AB3">
         <v>1.86</v>
@@ -1325,10 +1325,10 @@
         <v>1.23</v>
       </c>
       <c r="Z4">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AA4">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>1.32</v>
@@ -1408,13 +1408,13 @@
         <v>4.52</v>
       </c>
       <c r="J5">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K5">
-        <v>3.61</v>
+        <v>3.85</v>
       </c>
       <c r="L5">
-        <v>4.08</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
         <v>1.33</v>
@@ -1435,10 +1435,10 @@
         <v>3.65</v>
       </c>
       <c r="S5">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="T5">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U5">
         <v>1.68</v>
@@ -1456,10 +1456,10 @@
         <v>1.9</v>
       </c>
       <c r="Z5">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AA5">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AB5">
         <v>1.99</v>
@@ -1539,13 +1539,13 @@
         <v>3.8</v>
       </c>
       <c r="J6">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="K6">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="L6">
-        <v>2.84</v>
+        <v>2.75</v>
       </c>
       <c r="M6">
         <v>1.55</v>
@@ -1566,7 +1566,7 @@
         <v>2.55</v>
       </c>
       <c r="S6">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T6">
         <v>1.5</v>
@@ -1587,10 +1587,10 @@
         <v>1.48</v>
       </c>
       <c r="Z6">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AB6">
         <v>1.17</v>
@@ -1661,115 +1661,115 @@
         <v>125</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H7">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J7">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="M7">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="N7">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="O7">
         <v>1.02</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="Q7">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="S7">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="V7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="X7">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Y7">
+        <v>1.76</v>
+      </c>
+      <c r="Z7">
         <v>1.5</v>
       </c>
-      <c r="Z7">
-        <v>1.45</v>
-      </c>
       <c r="AA7">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="AB7">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AC7">
         <v>1.51</v>
       </c>
       <c r="AD7">
-        <v>3.03</v>
+        <v>3.16</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AF7">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AG7">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ7">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AK7">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AL7">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AM7">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="AN7">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="AO7">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AP7">
-        <v>2.67</v>
+        <v>2.84</v>
       </c>
       <c r="AQ7">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1792,28 +1792,28 @@
         <v>126</v>
       </c>
       <c r="G8">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I8">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="J8">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="M8">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="N8">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="O8">
         <v>1.04</v>
@@ -1825,82 +1825,82 @@
         <v>1.25</v>
       </c>
       <c r="R8">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U8">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W8">
+        <v>1.78</v>
+      </c>
+      <c r="X8">
+        <v>1.22</v>
+      </c>
+      <c r="Y8">
         <v>1.3</v>
       </c>
-      <c r="X8">
-        <v>1.25</v>
-      </c>
-      <c r="Y8">
-        <v>1.72</v>
-      </c>
       <c r="Z8">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="AA8">
-        <v>0.91</v>
+        <v>1.36</v>
       </c>
       <c r="AB8">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AC8">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="AD8">
-        <v>2.43</v>
+        <v>2.99</v>
       </c>
       <c r="AE8">
-        <v>1.76</v>
+        <v>2.66</v>
       </c>
       <c r="AF8">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AG8">
-        <v>2.49</v>
+        <v>1.67</v>
       </c>
       <c r="AH8">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AK8">
-        <v>2.48</v>
+        <v>3.2</v>
       </c>
       <c r="AL8">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="AM8">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="AN8">
-        <v>2.3</v>
+        <v>1.87</v>
       </c>
       <c r="AO8">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="AP8">
-        <v>3.14</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1923,115 +1923,115 @@
         <v>127</v>
       </c>
       <c r="G9">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="H9">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J9">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="M9">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N9">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="O9">
         <v>1.02</v>
       </c>
       <c r="P9">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="R9">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="T9">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V9">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="W9">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="X9">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Y9">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="Z9">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AA9">
-        <v>1.09</v>
+        <v>2.33</v>
       </c>
       <c r="AB9">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="AC9">
         <v>1.51</v>
       </c>
       <c r="AD9">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="AE9">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AF9">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG9">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AH9">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AK9">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="AL9">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AM9">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="AN9">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="AO9">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AP9">
-        <v>2.84</v>
+        <v>2.67</v>
       </c>
       <c r="AQ9">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2054,28 +2054,28 @@
         <v>128</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H10">
         <v>2.2</v>
       </c>
       <c r="I10">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="J10">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="K10">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="N10">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="O10">
         <v>1.04</v>
@@ -2087,13 +2087,13 @@
         <v>1.25</v>
       </c>
       <c r="R10">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U10">
         <v>1.73</v>
@@ -2102,67 +2102,67 @@
         <v>2</v>
       </c>
       <c r="W10">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="X10">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y10">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="Z10">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
       <c r="AA10">
-        <v>1.36</v>
+        <v>0.83</v>
       </c>
       <c r="AB10">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="AC10">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="AD10">
-        <v>2.99</v>
+        <v>2.43</v>
       </c>
       <c r="AE10">
-        <v>2.66</v>
+        <v>1.76</v>
       </c>
       <c r="AF10">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AG10">
-        <v>1.67</v>
+        <v>2.49</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ10">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AK10">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="AL10">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="AM10">
-        <v>2.32</v>
+        <v>1.89</v>
       </c>
       <c r="AN10">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="AO10">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="AP10">
-        <v>2.4</v>
+        <v>3.14</v>
       </c>
       <c r="AQ10">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2194,13 +2194,13 @@
         <v>3.1</v>
       </c>
       <c r="J11">
-        <v>2.54</v>
+        <v>2.18</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>3.72</v>
       </c>
       <c r="L11">
-        <v>2.49</v>
+        <v>3.14</v>
       </c>
       <c r="M11">
         <v>1.33</v>
@@ -2242,10 +2242,10 @@
         <v>1.52</v>
       </c>
       <c r="Z11">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AB11">
         <v>1.6</v>
@@ -2325,13 +2325,13 @@
         <v>4.5</v>
       </c>
       <c r="J12">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="K12">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L12">
-        <v>4.7</v>
+        <v>4.66</v>
       </c>
       <c r="M12">
         <v>1.28</v>
@@ -2373,10 +2373,10 @@
         <v>2.1</v>
       </c>
       <c r="Z12">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AA12">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AB12">
         <v>1.49</v>
@@ -2438,7 +2438,7 @@
         <v>73</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>93</v>
@@ -2447,115 +2447,115 @@
         <v>131</v>
       </c>
       <c r="G13">
-        <v>2.05</v>
+        <v>2.85</v>
       </c>
       <c r="H13">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="I13">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="J13">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="K13">
-        <v>4.2</v>
+        <v>3.34</v>
       </c>
       <c r="L13">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="M13">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="N13">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O13">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P13">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Q13">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="R13">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="S13">
         <v>1.81</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U13">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="V13">
+        <v>2.15</v>
+      </c>
+      <c r="W13">
+        <v>1.38</v>
+      </c>
+      <c r="X13">
+        <v>1.32</v>
+      </c>
+      <c r="Y13">
+        <v>1.6</v>
+      </c>
+      <c r="Z13">
+        <v>0.25</v>
+      </c>
+      <c r="AA13">
+        <v>0.5</v>
+      </c>
+      <c r="AB13">
+        <v>1.36</v>
+      </c>
+      <c r="AC13">
+        <v>1.24</v>
+      </c>
+      <c r="AD13">
+        <v>2.6</v>
+      </c>
+      <c r="AE13">
         <v>1.97</v>
       </c>
-      <c r="W13">
-        <v>1.09</v>
-      </c>
-      <c r="X13">
-        <v>1.25</v>
-      </c>
-      <c r="Y13">
-        <v>2.35</v>
-      </c>
-      <c r="Z13">
-        <v>1.87</v>
-      </c>
-      <c r="AA13">
-        <v>1.19</v>
-      </c>
-      <c r="AB13">
-        <v>1.64</v>
-      </c>
-      <c r="AC13">
-        <v>1.16</v>
-      </c>
-      <c r="AD13">
-        <v>2.8</v>
-      </c>
-      <c r="AE13">
+      <c r="AF13">
+        <v>8.9</v>
+      </c>
+      <c r="AG13">
+        <v>2.11</v>
+      </c>
+      <c r="AH13">
         <v>1.26</v>
       </c>
-      <c r="AF13">
-        <v>10.75</v>
-      </c>
-      <c r="AG13">
-        <v>4.85</v>
-      </c>
-      <c r="AH13">
-        <v>1.38</v>
-      </c>
       <c r="AI13">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AJ13">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="AK13">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="AL13">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="AM13">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AN13">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="AO13">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AP13">
-        <v>4.05</v>
+        <v>2.9</v>
       </c>
       <c r="AQ13">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2569,7 +2569,7 @@
         <v>73</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
@@ -2578,115 +2578,115 @@
         <v>132</v>
       </c>
       <c r="G14">
-        <v>2.85</v>
+        <v>2.05</v>
       </c>
       <c r="H14">
+        <v>2.35</v>
+      </c>
+      <c r="I14">
+        <v>4.9</v>
+      </c>
+      <c r="J14">
+        <v>1.55</v>
+      </c>
+      <c r="K14">
+        <v>3.75</v>
+      </c>
+      <c r="L14">
+        <v>5.5</v>
+      </c>
+      <c r="M14">
+        <v>1.32</v>
+      </c>
+      <c r="N14">
+        <v>3.1</v>
+      </c>
+      <c r="O14">
+        <v>1.01</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>1.22</v>
+      </c>
+      <c r="R14">
+        <v>3.9</v>
+      </c>
+      <c r="S14">
+        <v>1.75</v>
+      </c>
+      <c r="T14">
+        <v>1.95</v>
+      </c>
+      <c r="U14">
+        <v>1.72</v>
+      </c>
+      <c r="V14">
+        <v>1.97</v>
+      </c>
+      <c r="W14">
+        <v>1.09</v>
+      </c>
+      <c r="X14">
+        <v>1.25</v>
+      </c>
+      <c r="Y14">
+        <v>2.35</v>
+      </c>
+      <c r="Z14">
+        <v>1.75</v>
+      </c>
+      <c r="AA14">
+        <v>1.29</v>
+      </c>
+      <c r="AB14">
+        <v>1.64</v>
+      </c>
+      <c r="AC14">
+        <v>1.16</v>
+      </c>
+      <c r="AD14">
+        <v>2.8</v>
+      </c>
+      <c r="AE14">
+        <v>1.26</v>
+      </c>
+      <c r="AF14">
+        <v>10.75</v>
+      </c>
+      <c r="AG14">
+        <v>4.85</v>
+      </c>
+      <c r="AH14">
+        <v>1.38</v>
+      </c>
+      <c r="AI14">
+        <v>2.8</v>
+      </c>
+      <c r="AJ14">
+        <v>1.72</v>
+      </c>
+      <c r="AK14">
+        <v>2.1</v>
+      </c>
+      <c r="AL14">
         <v>2.15</v>
       </c>
-      <c r="I14">
-        <v>3.5</v>
-      </c>
-      <c r="J14">
-        <v>2.27</v>
-      </c>
-      <c r="K14">
-        <v>3.4</v>
-      </c>
-      <c r="L14">
-        <v>2.93</v>
-      </c>
-      <c r="M14">
-        <v>1.38</v>
-      </c>
-      <c r="N14">
-        <v>2.9</v>
-      </c>
-      <c r="O14">
-        <v>1.05</v>
-      </c>
-      <c r="P14">
-        <v>12.5</v>
-      </c>
-      <c r="Q14">
-        <v>1.27</v>
-      </c>
-      <c r="R14">
-        <v>3.8</v>
-      </c>
-      <c r="S14">
-        <v>1.85</v>
-      </c>
-      <c r="T14">
-        <v>2.01</v>
-      </c>
-      <c r="U14">
-        <v>1.68</v>
-      </c>
-      <c r="V14">
-        <v>2.15</v>
-      </c>
-      <c r="W14">
-        <v>1.38</v>
-      </c>
-      <c r="X14">
-        <v>1.32</v>
-      </c>
-      <c r="Y14">
-        <v>1.6</v>
-      </c>
-      <c r="Z14">
-        <v>0.25</v>
-      </c>
-      <c r="AA14">
-        <v>0.5</v>
-      </c>
-      <c r="AB14">
-        <v>1.36</v>
-      </c>
-      <c r="AC14">
-        <v>1.24</v>
-      </c>
-      <c r="AD14">
-        <v>2.6</v>
-      </c>
-      <c r="AE14">
-        <v>1.97</v>
-      </c>
-      <c r="AF14">
-        <v>8.9</v>
-      </c>
-      <c r="AG14">
-        <v>2.11</v>
-      </c>
-      <c r="AH14">
-        <v>1.26</v>
-      </c>
-      <c r="AI14">
-        <v>3.5</v>
-      </c>
-      <c r="AJ14">
-        <v>1.46</v>
-      </c>
-      <c r="AK14">
-        <v>2.55</v>
-      </c>
-      <c r="AL14">
-        <v>1.78</v>
-      </c>
       <c r="AM14">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AN14">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="AO14">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AP14">
-        <v>2.9</v>
+        <v>4.05</v>
       </c>
       <c r="AQ14">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2718,13 +2718,13 @@
         <v>13.28</v>
       </c>
       <c r="J15">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K15">
-        <v>6.75</v>
+        <v>6.99</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>15.7</v>
       </c>
       <c r="M15">
         <v>1.31</v>
@@ -2745,10 +2745,10 @@
         <v>4.3</v>
       </c>
       <c r="S15">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="T15">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U15">
         <v>2.76</v>
@@ -2790,10 +2790,10 @@
         <v>10.75</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ15">
         <v>1.38</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2">
         <v>45394</v>
@@ -2831,7 +2831,7 @@
         <v>75</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>96</v>
@@ -2840,120 +2840,120 @@
         <v>134</v>
       </c>
       <c r="G16">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H16">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="I16">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J16">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="K16">
-        <v>3.35</v>
+        <v>3.58</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.16</v>
       </c>
       <c r="M16">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>3.42</v>
       </c>
       <c r="O16">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P16">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q16">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="R16">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="S16">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="T16">
-        <v>1.71</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V16">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W16">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X16">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="Y16">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="Z16">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AA16">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AB16">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AC16">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AD16">
-        <v>3.09</v>
+        <v>2.88</v>
       </c>
       <c r="AE16">
+        <v>1.63</v>
+      </c>
+      <c r="AF16">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG16">
+        <v>2.52</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>1.25</v>
+      </c>
+      <c r="AK16">
+        <v>3.42</v>
+      </c>
+      <c r="AL16">
+        <v>1.46</v>
+      </c>
+      <c r="AM16">
+        <v>2.45</v>
+      </c>
+      <c r="AN16">
+        <v>1.78</v>
+      </c>
+      <c r="AO16">
+        <v>1.88</v>
+      </c>
+      <c r="AP16">
+        <v>2.25</v>
+      </c>
+      <c r="AQ16">
         <v>1.54</v>
-      </c>
-      <c r="AF16">
-        <v>9.1</v>
-      </c>
-      <c r="AG16">
-        <v>2.89</v>
-      </c>
-      <c r="AH16">
-        <v>1.26</v>
-      </c>
-      <c r="AI16">
-        <v>3.46</v>
-      </c>
-      <c r="AJ16">
-        <v>1.46</v>
-      </c>
-      <c r="AK16">
-        <v>2.45</v>
-      </c>
-      <c r="AL16">
-        <v>1.95</v>
-      </c>
-      <c r="AM16">
-        <v>1.85</v>
-      </c>
-      <c r="AN16">
-        <v>2.32</v>
-      </c>
-      <c r="AO16">
-        <v>1.51</v>
-      </c>
-      <c r="AP16">
-        <v>3.18</v>
-      </c>
-      <c r="AQ16">
-        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2">
         <v>45394</v>
@@ -2962,7 +2962,7 @@
         <v>75</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>97</v>
@@ -2971,120 +2971,120 @@
         <v>135</v>
       </c>
       <c r="G17">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="H17">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I17">
+        <v>2.4</v>
+      </c>
+      <c r="J17">
+        <v>4.08</v>
+      </c>
+      <c r="K17">
+        <v>3.66</v>
+      </c>
+      <c r="L17">
+        <v>1.89</v>
+      </c>
+      <c r="M17">
+        <v>1.36</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>1.04</v>
+      </c>
+      <c r="P17">
+        <v>12</v>
+      </c>
+      <c r="Q17">
+        <v>1.3</v>
+      </c>
+      <c r="R17">
         <v>3.5</v>
       </c>
-      <c r="J17">
-        <v>2.05</v>
-      </c>
-      <c r="K17">
-        <v>3.75</v>
-      </c>
-      <c r="L17">
-        <v>3.4</v>
-      </c>
-      <c r="M17">
-        <v>1.28</v>
-      </c>
-      <c r="N17">
-        <v>3.42</v>
-      </c>
-      <c r="O17">
-        <v>1.02</v>
-      </c>
-      <c r="P17">
-        <v>10</v>
-      </c>
-      <c r="Q17">
-        <v>1.16</v>
-      </c>
-      <c r="R17">
-        <v>4.4</v>
-      </c>
       <c r="S17">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="U17">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="Y17">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="Z17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>0.93</v>
+        <v>2.33</v>
       </c>
       <c r="AB17">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AC17">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AD17">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AE17">
-        <v>1.63</v>
+        <v>2.62</v>
       </c>
       <c r="AF17">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG17">
-        <v>2.52</v>
+        <v>1.67</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AJ17">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AK17">
-        <v>3.42</v>
+        <v>2.27</v>
       </c>
       <c r="AL17">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
       <c r="AM17">
-        <v>2.45</v>
+        <v>1.78</v>
       </c>
       <c r="AN17">
-        <v>1.78</v>
+        <v>2.57</v>
       </c>
       <c r="AO17">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>3.48</v>
       </c>
       <c r="AQ17">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2">
         <v>45394</v>
@@ -3102,25 +3102,25 @@
         <v>136</v>
       </c>
       <c r="G18">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="H18">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I18">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="J18">
-        <v>4.05</v>
+        <v>1.78</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="L18">
-        <v>1.8</v>
+        <v>4.14</v>
       </c>
       <c r="M18">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -3129,88 +3129,88 @@
         <v>1.04</v>
       </c>
       <c r="P18">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q18">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R18">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="S18">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U18">
         <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="X18">
         <v>1.22</v>
       </c>
       <c r="Y18">
-        <v>1.22</v>
+        <v>1.85</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="AA18">
-        <v>2.33</v>
+        <v>1.47</v>
       </c>
       <c r="AB18">
+        <v>1.68</v>
+      </c>
+      <c r="AC18">
+        <v>1.41</v>
+      </c>
+      <c r="AD18">
+        <v>3.09</v>
+      </c>
+      <c r="AE18">
+        <v>1.54</v>
+      </c>
+      <c r="AF18">
+        <v>9.1</v>
+      </c>
+      <c r="AG18">
+        <v>2.89</v>
+      </c>
+      <c r="AH18">
+        <v>1.26</v>
+      </c>
+      <c r="AI18">
+        <v>3.46</v>
+      </c>
+      <c r="AJ18">
+        <v>1.46</v>
+      </c>
+      <c r="AK18">
+        <v>2.45</v>
+      </c>
+      <c r="AL18">
+        <v>1.95</v>
+      </c>
+      <c r="AM18">
+        <v>1.85</v>
+      </c>
+      <c r="AN18">
+        <v>2.32</v>
+      </c>
+      <c r="AO18">
         <v>1.51</v>
       </c>
-      <c r="AC18">
-        <v>1.49</v>
-      </c>
-      <c r="AD18">
-        <v>3</v>
-      </c>
-      <c r="AE18">
-        <v>2.62</v>
-      </c>
-      <c r="AF18">
-        <v>9</v>
-      </c>
-      <c r="AG18">
-        <v>1.67</v>
-      </c>
-      <c r="AH18">
-        <v>1.29</v>
-      </c>
-      <c r="AI18">
-        <v>3.14</v>
-      </c>
-      <c r="AJ18">
-        <v>1.56</v>
-      </c>
-      <c r="AK18">
-        <v>2.27</v>
-      </c>
-      <c r="AL18">
-        <v>1.97</v>
-      </c>
-      <c r="AM18">
-        <v>1.78</v>
-      </c>
-      <c r="AN18">
-        <v>2.57</v>
-      </c>
-      <c r="AO18">
-        <v>1.44</v>
-      </c>
       <c r="AP18">
-        <v>3.48</v>
+        <v>3.18</v>
       </c>
       <c r="AQ18">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3233,76 +3233,76 @@
         <v>137</v>
       </c>
       <c r="G19">
-        <v>4.54</v>
+        <v>1.97</v>
       </c>
       <c r="H19">
-        <v>2.47</v>
+        <v>2.66</v>
       </c>
       <c r="I19">
-        <v>2.31</v>
+        <v>5.68</v>
       </c>
       <c r="J19">
-        <v>3.8</v>
+        <v>1.49</v>
       </c>
       <c r="K19">
-        <v>3.75</v>
+        <v>4.38</v>
       </c>
       <c r="L19">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="M19">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="N19">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O19">
         <v>1.02</v>
       </c>
       <c r="P19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q19">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="R19">
-        <v>4.33</v>
+        <v>4.7</v>
       </c>
       <c r="S19">
+        <v>1.5</v>
+      </c>
+      <c r="T19">
+        <v>2.4</v>
+      </c>
+      <c r="U19">
         <v>1.62</v>
       </c>
-      <c r="T19">
-        <v>2.2</v>
-      </c>
-      <c r="U19">
-        <v>1.57</v>
-      </c>
       <c r="V19">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="X19">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="Y19">
-        <v>1.22</v>
+        <v>2.45</v>
       </c>
       <c r="Z19">
-        <v>1.31</v>
+        <v>1.81</v>
       </c>
       <c r="AA19">
-        <v>1.56</v>
+        <v>0.75</v>
       </c>
       <c r="AB19">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AC19">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="AD19">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3326,16 +3326,16 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -3364,76 +3364,76 @@
         <v>138</v>
       </c>
       <c r="G20">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H20">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I20">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="J20">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="K20">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="M20">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="N20">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q20">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="R20">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="S20">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T20">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="U20">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="W20">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="X20">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Y20">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z20">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="AA20">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="AB20">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AC20">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AD20">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2">
         <v>45394</v>
@@ -3486,7 +3486,7 @@
         <v>76</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>101</v>
@@ -3495,115 +3495,115 @@
         <v>139</v>
       </c>
       <c r="G21">
+        <v>2.2</v>
+      </c>
+      <c r="H21">
         <v>2.4</v>
       </c>
-      <c r="H21">
-        <v>2.55</v>
-      </c>
       <c r="I21">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J21">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M21">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="N21">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="O21">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q21">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="R21">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="S21">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="T21">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="V21">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="W21">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="X21">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Y21">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Z21">
-        <v>1.56</v>
+        <v>0.93</v>
       </c>
       <c r="AA21">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AB21">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="AC21">
-        <v>1.51</v>
+        <v>1.06</v>
       </c>
       <c r="AD21">
-        <v>3.25</v>
+        <v>2.44</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF21">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG21">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AH21">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI21">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="AJ21">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AK21">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AL21">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AM21">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AN21">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="AO21">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AP21">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -3757,115 +3757,115 @@
         <v>141</v>
       </c>
       <c r="G23">
-        <v>1.97</v>
+        <v>2.4</v>
       </c>
       <c r="H23">
-        <v>2.66</v>
+        <v>2.55</v>
       </c>
       <c r="I23">
-        <v>5.68</v>
+        <v>3.75</v>
       </c>
       <c r="J23">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="K23">
-        <v>4.38</v>
+        <v>4.2</v>
       </c>
       <c r="L23">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="O23">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P23">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q23">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="R23">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="S23">
+        <v>1.41</v>
+      </c>
+      <c r="T23">
+        <v>2.6</v>
+      </c>
+      <c r="U23">
+        <v>1.4</v>
+      </c>
+      <c r="V23">
+        <v>2.8</v>
+      </c>
+      <c r="W23">
+        <v>1.33</v>
+      </c>
+      <c r="X23">
+        <v>1.18</v>
+      </c>
+      <c r="Y23">
+        <v>1.9</v>
+      </c>
+      <c r="Z23">
+        <v>1.56</v>
+      </c>
+      <c r="AA23">
         <v>1.5</v>
       </c>
-      <c r="T23">
-        <v>2.4</v>
-      </c>
-      <c r="U23">
-        <v>1.62</v>
-      </c>
-      <c r="V23">
-        <v>2.15</v>
-      </c>
-      <c r="W23">
-        <v>1.14</v>
-      </c>
-      <c r="X23">
-        <v>1.17</v>
-      </c>
-      <c r="Y23">
-        <v>2.45</v>
-      </c>
-      <c r="Z23">
-        <v>1.81</v>
-      </c>
-      <c r="AA23">
-        <v>0.75</v>
-      </c>
       <c r="AB23">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AC23">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="AD23">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3888,76 +3888,76 @@
         <v>142</v>
       </c>
       <c r="G24">
-        <v>2.1</v>
+        <v>4.54</v>
       </c>
       <c r="H24">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="I24">
-        <v>4.6</v>
+        <v>2.31</v>
       </c>
       <c r="J24">
+        <v>3.8</v>
+      </c>
+      <c r="K24">
+        <v>3.75</v>
+      </c>
+      <c r="L24">
+        <v>1.75</v>
+      </c>
+      <c r="M24">
+        <v>1.29</v>
+      </c>
+      <c r="N24">
+        <v>3.3</v>
+      </c>
+      <c r="O24">
+        <v>1.02</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>1.18</v>
+      </c>
+      <c r="R24">
+        <v>4.33</v>
+      </c>
+      <c r="S24">
         <v>1.62</v>
       </c>
-      <c r="K24">
-        <v>4.2</v>
-      </c>
-      <c r="L24">
-        <v>4.5</v>
-      </c>
-      <c r="M24">
-        <v>1.25</v>
-      </c>
-      <c r="N24">
-        <v>3.6</v>
-      </c>
-      <c r="O24">
-        <v>1.01</v>
-      </c>
-      <c r="P24">
-        <v>11</v>
-      </c>
-      <c r="Q24">
-        <v>1.17</v>
-      </c>
-      <c r="R24">
-        <v>5</v>
-      </c>
-      <c r="S24">
-        <v>1.53</v>
-      </c>
       <c r="T24">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="U24">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V24">
         <v>2.25</v>
       </c>
       <c r="W24">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="X24">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="Y24">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="Z24">
-        <v>1.88</v>
+        <v>1.31</v>
       </c>
       <c r="AA24">
-        <v>0.5</v>
+        <v>1.56</v>
       </c>
       <c r="AB24">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="AC24">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AD24">
-        <v>3.08</v>
+        <v>2.78</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3981,16 +3981,16 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2">
         <v>45394</v>
@@ -4010,7 +4010,7 @@
         <v>76</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
         <v>105</v>
@@ -4019,115 +4019,115 @@
         <v>143</v>
       </c>
       <c r="G25">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="H25">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I25">
+        <v>6.5</v>
+      </c>
+      <c r="J25">
+        <v>1.36</v>
+      </c>
+      <c r="K25">
         <v>4.33</v>
       </c>
-      <c r="J25">
-        <v>1.64</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
-      </c>
       <c r="L25">
-        <v>4.55</v>
+        <v>7.5</v>
       </c>
       <c r="M25">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O25">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P25">
         <v>10</v>
       </c>
       <c r="Q25">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="R25">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="S25">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T25">
         <v>2.35</v>
       </c>
       <c r="U25">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="V25">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="X25">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Y25">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z25">
-        <v>0.93</v>
+        <v>2.38</v>
       </c>
       <c r="AA25">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AB25">
-        <v>1.38</v>
+        <v>1.7</v>
       </c>
       <c r="AC25">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="AD25">
-        <v>2.44</v>
+        <v>3.05</v>
       </c>
       <c r="AE25">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4284,19 +4284,19 @@
         <v>2.75</v>
       </c>
       <c r="H27">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I27">
         <v>3.25</v>
       </c>
       <c r="J27">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="K27">
-        <v>3.6</v>
+        <v>3.39</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M27">
         <v>1.3</v>
@@ -4317,16 +4317,16 @@
         <v>4.25</v>
       </c>
       <c r="S27">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="T27">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U27">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V27">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W27">
         <v>1.41</v>
@@ -4374,7 +4374,7 @@
         <v>2.93</v>
       </c>
       <c r="AL27">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="AM27">
         <v>2.19</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2">
         <v>45394</v>
@@ -4403,7 +4403,7 @@
         <v>78</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
         <v>108</v>
@@ -4412,120 +4412,120 @@
         <v>146</v>
       </c>
       <c r="G28">
-        <v>2.7</v>
+        <v>1.96</v>
       </c>
       <c r="H28">
-        <v>2.1</v>
+        <v>2.61</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>6.01</v>
       </c>
       <c r="J28">
-        <v>2.05</v>
+        <v>1.47</v>
       </c>
       <c r="K28">
-        <v>3.15</v>
+        <v>4.47</v>
       </c>
       <c r="L28">
-        <v>3.65</v>
+        <v>5.75</v>
       </c>
       <c r="M28">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="N28">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="O28">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P28">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="Q28">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="R28">
-        <v>3</v>
+        <v>4.68</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="T28">
-        <v>1.67</v>
+        <v>2.28</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="W28">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="X28">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="Y28">
-        <v>1.78</v>
+        <v>2.52</v>
       </c>
       <c r="Z28">
+        <v>1.54</v>
+      </c>
+      <c r="AA28">
+        <v>0.54</v>
+      </c>
+      <c r="AB28">
+        <v>1.83</v>
+      </c>
+      <c r="AC28">
+        <v>1.1</v>
+      </c>
+      <c r="AD28">
+        <v>2.93</v>
+      </c>
+      <c r="AE28">
+        <v>1.31</v>
+      </c>
+      <c r="AF28">
+        <v>11.25</v>
+      </c>
+      <c r="AG28">
+        <v>3.95</v>
+      </c>
+      <c r="AH28">
+        <v>1.12</v>
+      </c>
+      <c r="AI28">
+        <v>5.25</v>
+      </c>
+      <c r="AJ28">
         <v>1.25</v>
       </c>
-      <c r="AA28">
-        <v>1.56</v>
-      </c>
-      <c r="AB28">
-        <v>1.39</v>
-      </c>
-      <c r="AC28">
-        <v>1.17</v>
-      </c>
-      <c r="AD28">
-        <v>2.56</v>
-      </c>
-      <c r="AE28">
-        <v>1.55</v>
-      </c>
-      <c r="AF28">
-        <v>8</v>
-      </c>
-      <c r="AG28">
-        <v>3.02</v>
-      </c>
-      <c r="AH28">
-        <v>1.33</v>
-      </c>
-      <c r="AI28">
-        <v>2.91</v>
-      </c>
-      <c r="AJ28">
-        <v>1.64</v>
-      </c>
       <c r="AK28">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="AL28">
-        <v>2.09</v>
+        <v>1.28</v>
       </c>
       <c r="AM28">
-        <v>1.69</v>
+        <v>3.18</v>
       </c>
       <c r="AN28">
-        <v>2.76</v>
+        <v>1.6</v>
       </c>
       <c r="AO28">
-        <v>1.39</v>
+        <v>2.27</v>
       </c>
       <c r="AP28">
-        <v>3.84</v>
+        <v>1.82</v>
       </c>
       <c r="AQ28">
-        <v>1.2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2">
         <v>45394</v>
@@ -4534,7 +4534,7 @@
         <v>78</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>109</v>
@@ -4543,120 +4543,120 @@
         <v>147</v>
       </c>
       <c r="G29">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="H29">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="J29">
-        <v>1.99</v>
+        <v>2.9</v>
       </c>
       <c r="K29">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
-        <v>3.35</v>
+        <v>2.63</v>
       </c>
       <c r="M29">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="N29">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="O29">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="P29">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="Q29">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="R29">
-        <v>3.65</v>
+        <v>3.04</v>
       </c>
       <c r="S29">
-        <v>1.87</v>
+        <v>2.35</v>
       </c>
       <c r="T29">
+        <v>1.57</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>1.73</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+      <c r="X29">
+        <v>1.31</v>
+      </c>
+      <c r="Y29">
+        <v>1.48</v>
+      </c>
+      <c r="Z29">
+        <v>1.91</v>
+      </c>
+      <c r="AA29">
+        <v>1.64</v>
+      </c>
+      <c r="AB29">
+        <v>1.56</v>
+      </c>
+      <c r="AC29">
+        <v>1.31</v>
+      </c>
+      <c r="AD29">
+        <v>2.87</v>
+      </c>
+      <c r="AE29">
         <v>1.93</v>
       </c>
-      <c r="U29">
-        <v>1.75</v>
-      </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
-      <c r="W29">
-        <v>1.3</v>
-      </c>
-      <c r="X29">
-        <v>1.32</v>
-      </c>
-      <c r="Y29">
-        <v>1.78</v>
-      </c>
-      <c r="Z29">
-        <v>1.5</v>
-      </c>
-      <c r="AA29">
-        <v>0.64</v>
-      </c>
-      <c r="AB29">
-        <v>1.44</v>
-      </c>
-      <c r="AC29">
-        <v>1.17</v>
-      </c>
-      <c r="AD29">
-        <v>2.61</v>
-      </c>
-      <c r="AE29">
-        <v>1.68</v>
-      </c>
       <c r="AF29">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG29">
-        <v>2.55</v>
+        <v>2.13</v>
       </c>
       <c r="AH29">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AI29">
-        <v>2.85</v>
+        <v>3.28</v>
       </c>
       <c r="AJ29">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AK29">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="AL29">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="AM29">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="AN29">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AO29">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AP29">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="AQ29">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2">
         <v>45394</v>
@@ -4665,7 +4665,7 @@
         <v>78</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
         <v>110</v>
@@ -4674,120 +4674,120 @@
         <v>148</v>
       </c>
       <c r="G30">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="H30">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="I30">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>2.44</v>
+        <v>2.05</v>
       </c>
       <c r="K30">
-        <v>2.99</v>
+        <v>3.4</v>
       </c>
       <c r="L30">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="M30">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O30">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="P30">
-        <v>6.25</v>
+        <v>12</v>
       </c>
       <c r="Q30">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="R30">
-        <v>2.43</v>
+        <v>3.65</v>
       </c>
       <c r="S30">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="T30">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="U30">
+        <v>1.75</v>
+      </c>
+      <c r="V30">
         <v>2</v>
       </c>
-      <c r="V30">
-        <v>1.7</v>
-      </c>
       <c r="W30">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X30">
+        <v>1.32</v>
+      </c>
+      <c r="Y30">
+        <v>1.78</v>
+      </c>
+      <c r="Z30">
+        <v>1.5</v>
+      </c>
+      <c r="AA30">
+        <v>0.64</v>
+      </c>
+      <c r="AB30">
+        <v>1.44</v>
+      </c>
+      <c r="AC30">
+        <v>1.17</v>
+      </c>
+      <c r="AD30">
+        <v>2.61</v>
+      </c>
+      <c r="AE30">
+        <v>1.68</v>
+      </c>
+      <c r="AF30">
+        <v>7.5</v>
+      </c>
+      <c r="AG30">
+        <v>2.55</v>
+      </c>
+      <c r="AH30">
         <v>1.33</v>
       </c>
-      <c r="Y30">
-        <v>1.53</v>
-      </c>
-      <c r="Z30">
-        <v>1.94</v>
-      </c>
-      <c r="AA30">
-        <v>1.24</v>
-      </c>
-      <c r="AB30">
-        <v>1.38</v>
-      </c>
-      <c r="AC30">
-        <v>1.1</v>
-      </c>
-      <c r="AD30">
-        <v>2.48</v>
-      </c>
-      <c r="AE30">
-        <v>1.87</v>
-      </c>
-      <c r="AF30">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG30">
-        <v>2.22</v>
-      </c>
-      <c r="AH30">
-        <v>1.15</v>
-      </c>
       <c r="AI30">
-        <v>4.5</v>
+        <v>2.85</v>
       </c>
       <c r="AJ30">
-        <v>1.31</v>
+        <v>1.6</v>
       </c>
       <c r="AK30">
-        <v>3.04</v>
+        <v>2.15</v>
       </c>
       <c r="AL30">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="AM30">
-        <v>2.25</v>
+        <v>1.71</v>
       </c>
       <c r="AN30">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="AO30">
-        <v>1.95</v>
+        <v>1.41</v>
       </c>
       <c r="AP30">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="AQ30">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2">
         <v>45394</v>
@@ -4796,7 +4796,7 @@
         <v>78</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
         <v>111</v>
@@ -4805,120 +4805,120 @@
         <v>149</v>
       </c>
       <c r="G31">
-        <v>1.96</v>
+        <v>3.2</v>
       </c>
       <c r="H31">
-        <v>2.61</v>
+        <v>1.85</v>
       </c>
       <c r="I31">
-        <v>6.01</v>
+        <v>3.8</v>
       </c>
       <c r="J31">
+        <v>2.4</v>
+      </c>
+      <c r="K31">
+        <v>2.65</v>
+      </c>
+      <c r="L31">
+        <v>3.05</v>
+      </c>
+      <c r="M31">
+        <v>1.57</v>
+      </c>
+      <c r="N31">
+        <v>2.25</v>
+      </c>
+      <c r="O31">
+        <v>1.11</v>
+      </c>
+      <c r="P31">
+        <v>6.25</v>
+      </c>
+      <c r="Q31">
+        <v>1.49</v>
+      </c>
+      <c r="R31">
+        <v>2.43</v>
+      </c>
+      <c r="S31">
+        <v>2.55</v>
+      </c>
+      <c r="T31">
+        <v>1.45</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>1.7</v>
+      </c>
+      <c r="W31">
+        <v>1.35</v>
+      </c>
+      <c r="X31">
+        <v>1.33</v>
+      </c>
+      <c r="Y31">
         <v>1.53</v>
       </c>
-      <c r="K31">
-        <v>4.15</v>
-      </c>
-      <c r="L31">
-        <v>5.4</v>
-      </c>
-      <c r="M31">
-        <v>1.28</v>
-      </c>
-      <c r="N31">
-        <v>3.4</v>
-      </c>
-      <c r="O31">
-        <v>1.03</v>
-      </c>
-      <c r="P31">
-        <v>17.5</v>
-      </c>
-      <c r="Q31">
-        <v>1.2</v>
-      </c>
-      <c r="R31">
-        <v>4.68</v>
-      </c>
-      <c r="S31">
-        <v>1.6</v>
-      </c>
-      <c r="T31">
-        <v>2.28</v>
-      </c>
-      <c r="U31">
-        <v>1.69</v>
-      </c>
-      <c r="V31">
-        <v>2.11</v>
-      </c>
-      <c r="W31">
-        <v>1.12</v>
-      </c>
-      <c r="X31">
-        <v>1.18</v>
-      </c>
-      <c r="Y31">
-        <v>2.52</v>
-      </c>
       <c r="Z31">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="AA31">
-        <v>0.54</v>
+        <v>1.24</v>
       </c>
       <c r="AB31">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AC31">
         <v>1.1</v>
       </c>
       <c r="AD31">
-        <v>2.93</v>
+        <v>2.48</v>
       </c>
       <c r="AE31">
+        <v>1.87</v>
+      </c>
+      <c r="AF31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG31">
+        <v>2.22</v>
+      </c>
+      <c r="AH31">
+        <v>1.15</v>
+      </c>
+      <c r="AI31">
+        <v>4.5</v>
+      </c>
+      <c r="AJ31">
         <v>1.31</v>
       </c>
-      <c r="AF31">
-        <v>11.25</v>
-      </c>
-      <c r="AG31">
-        <v>3.95</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AL31">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AM31">
-        <v>3.18</v>
+        <v>2.25</v>
       </c>
       <c r="AN31">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AO31">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="AP31">
-        <v>1.82</v>
+        <v>2.52</v>
       </c>
       <c r="AQ31">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2">
         <v>45394</v>
@@ -4927,7 +4927,7 @@
         <v>78</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
         <v>112</v>
@@ -4936,115 +4936,115 @@
         <v>150</v>
       </c>
       <c r="G32">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H32">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I32">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="K32">
         <v>3.2</v>
       </c>
       <c r="L32">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="N32">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="O32">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P32">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Q32">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R32">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="S32">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U32">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X32">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Y32">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="Z32">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="AA32">
+        <v>1.56</v>
+      </c>
+      <c r="AB32">
+        <v>1.39</v>
+      </c>
+      <c r="AC32">
+        <v>1.17</v>
+      </c>
+      <c r="AD32">
+        <v>2.56</v>
+      </c>
+      <c r="AE32">
+        <v>1.55</v>
+      </c>
+      <c r="AF32">
+        <v>8</v>
+      </c>
+      <c r="AG32">
+        <v>3.02</v>
+      </c>
+      <c r="AH32">
+        <v>1.33</v>
+      </c>
+      <c r="AI32">
+        <v>2.91</v>
+      </c>
+      <c r="AJ32">
         <v>1.64</v>
       </c>
-      <c r="AB32">
-        <v>1.56</v>
-      </c>
-      <c r="AC32">
-        <v>1.31</v>
-      </c>
-      <c r="AD32">
-        <v>2.87</v>
-      </c>
-      <c r="AE32">
-        <v>1.93</v>
-      </c>
-      <c r="AF32">
-        <v>8.5</v>
-      </c>
-      <c r="AG32">
-        <v>2.13</v>
-      </c>
-      <c r="AH32">
-        <v>1.27</v>
-      </c>
-      <c r="AI32">
-        <v>3.28</v>
-      </c>
-      <c r="AJ32">
-        <v>1.51</v>
-      </c>
       <c r="AK32">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="AL32">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="AM32">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="AN32">
-        <v>2.45</v>
+        <v>2.76</v>
       </c>
       <c r="AO32">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AP32">
-        <v>3.34</v>
+        <v>3.84</v>
       </c>
       <c r="AQ32">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5058,7 +5058,7 @@
         <v>79</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
         <v>113</v>
@@ -5067,112 +5067,112 @@
         <v>151</v>
       </c>
       <c r="G33">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H33">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I33">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="J33">
+        <v>1.94</v>
+      </c>
+      <c r="K33">
+        <v>3.55</v>
+      </c>
+      <c r="L33">
+        <v>3.33</v>
+      </c>
+      <c r="M33">
         <v>1.31</v>
       </c>
-      <c r="K33">
-        <v>4.95</v>
-      </c>
-      <c r="L33">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="M33">
-        <v>1.33</v>
-      </c>
       <c r="N33">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="O33">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P33">
-        <v>15.25</v>
+        <v>10</v>
       </c>
       <c r="Q33">
+        <v>1.17</v>
+      </c>
+      <c r="R33">
+        <v>4.15</v>
+      </c>
+      <c r="S33">
+        <v>1.62</v>
+      </c>
+      <c r="T33">
+        <v>2.15</v>
+      </c>
+      <c r="U33">
+        <v>1.55</v>
+      </c>
+      <c r="V33">
+        <v>2.23</v>
+      </c>
+      <c r="W33">
+        <v>1.28</v>
+      </c>
+      <c r="X33">
         <v>1.24</v>
       </c>
-      <c r="R33">
-        <v>4.12</v>
-      </c>
-      <c r="S33">
-        <v>1.96</v>
-      </c>
-      <c r="T33">
-        <v>1.9</v>
-      </c>
-      <c r="U33">
-        <v>2.1</v>
-      </c>
-      <c r="V33">
-        <v>1.67</v>
-      </c>
-      <c r="W33">
-        <v>1.08</v>
-      </c>
-      <c r="X33">
-        <v>1.16</v>
-      </c>
       <c r="Y33">
-        <v>3.4</v>
+        <v>1.74</v>
       </c>
       <c r="Z33">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AA33">
-        <v>0.47</v>
+        <v>1.57</v>
       </c>
       <c r="AB33">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="AC33">
-        <v>0.91</v>
+        <v>1.44</v>
       </c>
       <c r="AD33">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="AE33">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="AF33">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AG33">
-        <v>4.9</v>
+        <v>2.53</v>
       </c>
       <c r="AH33">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AI33">
         <v>3.2</v>
       </c>
       <c r="AJ33">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AK33">
+        <v>2.6</v>
+      </c>
+      <c r="AL33">
+        <v>1.83</v>
+      </c>
+      <c r="AM33">
+        <v>1.87</v>
+      </c>
+      <c r="AN33">
         <v>2.35</v>
       </c>
-      <c r="AL33">
-        <v>1.85</v>
-      </c>
-      <c r="AM33">
-        <v>1.84</v>
-      </c>
-      <c r="AN33">
-        <v>2.32</v>
-      </c>
       <c r="AO33">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AQ33">
         <v>1.3</v>
@@ -5189,7 +5189,7 @@
         <v>79</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>114</v>
@@ -5198,115 +5198,115 @@
         <v>152</v>
       </c>
       <c r="G34">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H34">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="I34">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J34">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>3.29</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="M34">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="N34">
-        <v>3.26</v>
+        <v>2.75</v>
       </c>
       <c r="O34">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P34">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q34">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="R34">
-        <v>4.15</v>
+        <v>3.35</v>
       </c>
       <c r="S34">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="T34">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="U34">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="V34">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X34">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Y34">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="Z34">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AA34">
-        <v>1.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB34">
         <v>1.61</v>
       </c>
       <c r="AC34">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="AD34">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AJ34">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AK34">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="35" spans="1:43">
@@ -5320,7 +5320,7 @@
         <v>79</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>115</v>
@@ -5329,115 +5329,115 @@
         <v>153</v>
       </c>
       <c r="G35">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H35">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="I35">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="J35">
-        <v>2.13</v>
+        <v>1.28</v>
       </c>
       <c r="K35">
+        <v>5.5</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+      <c r="M35">
+        <v>1.33</v>
+      </c>
+      <c r="N35">
+        <v>3.25</v>
+      </c>
+      <c r="O35">
+        <v>1.04</v>
+      </c>
+      <c r="P35">
+        <v>15.25</v>
+      </c>
+      <c r="Q35">
+        <v>1.24</v>
+      </c>
+      <c r="R35">
+        <v>4.12</v>
+      </c>
+      <c r="S35">
+        <v>1.7</v>
+      </c>
+      <c r="T35">
+        <v>2.1</v>
+      </c>
+      <c r="U35">
+        <v>2.1</v>
+      </c>
+      <c r="V35">
+        <v>1.67</v>
+      </c>
+      <c r="W35">
+        <v>1.08</v>
+      </c>
+      <c r="X35">
+        <v>1.16</v>
+      </c>
+      <c r="Y35">
         <v>3.4</v>
       </c>
-      <c r="L35">
-        <v>3.15</v>
-      </c>
-      <c r="M35">
-        <v>1.4</v>
-      </c>
-      <c r="N35">
-        <v>2.75</v>
-      </c>
-      <c r="O35">
-        <v>1.06</v>
-      </c>
-      <c r="P35">
-        <v>8.5</v>
-      </c>
-      <c r="Q35">
+      <c r="Z35">
+        <v>1.6</v>
+      </c>
+      <c r="AA35">
+        <v>0.47</v>
+      </c>
+      <c r="AB35">
+        <v>1.29</v>
+      </c>
+      <c r="AC35">
+        <v>0.91</v>
+      </c>
+      <c r="AD35">
+        <v>2.2</v>
+      </c>
+      <c r="AE35">
+        <v>1.27</v>
+      </c>
+      <c r="AF35">
+        <v>10</v>
+      </c>
+      <c r="AG35">
+        <v>4.9</v>
+      </c>
+      <c r="AH35">
+        <v>1.26</v>
+      </c>
+      <c r="AI35">
+        <v>3.2</v>
+      </c>
+      <c r="AJ35">
+        <v>1.49</v>
+      </c>
+      <c r="AK35">
+        <v>2.35</v>
+      </c>
+      <c r="AL35">
+        <v>1.85</v>
+      </c>
+      <c r="AM35">
+        <v>1.84</v>
+      </c>
+      <c r="AN35">
+        <v>2.32</v>
+      </c>
+      <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>3</v>
+      </c>
+      <c r="AQ35">
         <v>1.3</v>
-      </c>
-      <c r="R35">
-        <v>3.35</v>
-      </c>
-      <c r="S35">
-        <v>1.95</v>
-      </c>
-      <c r="T35">
-        <v>1.89</v>
-      </c>
-      <c r="U35">
-        <v>1.73</v>
-      </c>
-      <c r="V35">
-        <v>1.95</v>
-      </c>
-      <c r="W35">
-        <v>1.3</v>
-      </c>
-      <c r="X35">
-        <v>1.25</v>
-      </c>
-      <c r="Y35">
-        <v>1.67</v>
-      </c>
-      <c r="Z35">
-        <v>1.94</v>
-      </c>
-      <c r="AA35">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AB35">
-        <v>1.61</v>
-      </c>
-      <c r="AC35">
-        <v>1.14</v>
-      </c>
-      <c r="AD35">
-        <v>2.75</v>
-      </c>
-      <c r="AE35">
-        <v>1.67</v>
-      </c>
-      <c r="AF35">
-        <v>8</v>
-      </c>
-      <c r="AG35">
-        <v>2.62</v>
-      </c>
-      <c r="AH35">
-        <v>1.42</v>
-      </c>
-      <c r="AI35">
-        <v>2.7</v>
-      </c>
-      <c r="AJ35">
-        <v>1.72</v>
-      </c>
-      <c r="AK35">
-        <v>2.05</v>
-      </c>
-      <c r="AL35">
-        <v>2.2</v>
-      </c>
-      <c r="AM35">
-        <v>1.65</v>
-      </c>
-      <c r="AN35">
-        <v>2.85</v>
-      </c>
-      <c r="AO35">
-        <v>1.38</v>
-      </c>
-      <c r="AP35">
-        <v>3.9</v>
-      </c>
-      <c r="AQ35">
-        <v>1.23</v>
       </c>
     </row>
     <row r="36" spans="1:43">
@@ -5469,13 +5469,13 @@
         <v>2.4</v>
       </c>
       <c r="J36">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K36">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L36">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="M36">
         <v>1.4</v>
@@ -5496,7 +5496,7 @@
         <v>3.4</v>
       </c>
       <c r="S36">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="T36">
         <v>1.88</v>
@@ -5600,13 +5600,13 @@
         <v>2</v>
       </c>
       <c r="J37">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K37">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L37">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M37">
         <v>1.25</v>
@@ -5627,10 +5627,10 @@
         <v>5.5</v>
       </c>
       <c r="S37">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="T37">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="U37">
         <v>1.57</v>
@@ -5731,13 +5731,13 @@
         <v>3.75</v>
       </c>
       <c r="J38">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="K38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
         <v>1.4</v>
@@ -5758,10 +5758,10 @@
         <v>3.4</v>
       </c>
       <c r="S38">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U38">
         <v>1.75</v>
@@ -5862,13 +5862,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K39">
-        <v>5.4</v>
+        <v>5.88</v>
       </c>
       <c r="L39">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M39">
         <v>0</v>
